--- a/Stock Selection/CLOSED POSITION HISTORY.xlsx
+++ b/Stock Selection/CLOSED POSITION HISTORY.xlsx
@@ -551,7 +551,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NVDA.US</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -614,11 +614,11 @@
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="n">
-        <v>1342063955</v>
+        <v>1393281432</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SHELL.NL</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -627,35 +627,35 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.4139</v>
+        <v>0.632</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45446.37534833333</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G3" t="n">
-        <v>33.545</v>
+        <v>5.981</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45453.66360037037</v>
+        <v>45496.61775418981</v>
       </c>
       <c r="I3" t="n">
-        <v>32.605</v>
+        <v>5.967</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>15.15</v>
+        <v>3.78</v>
       </c>
       <c r="M3" t="n">
-        <v>14.42</v>
+        <v>3.77</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -670,18 +670,18 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.73</v>
+        <v>-0.01</v>
       </c>
       <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="n">
-        <v>1350877137</v>
+        <v>1393281260</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US30</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -690,41 +690,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
+        <v>0.5612</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45453.90555224537</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G4" t="n">
-        <v>38900</v>
+        <v>5.812</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45453.90972410879</v>
+        <v>45496.61775451389</v>
       </c>
       <c r="I4" t="n">
-        <v>38869</v>
+        <v>5.81</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>pending(t/p|s/l)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>38874</v>
-      </c>
-      <c r="O4" t="n">
-        <v>38933</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9.73</v>
-      </c>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
@@ -735,22 +733,18 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-1.55</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
-        <v>1357581812</v>
+        <v>1393281260</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PEP.US</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -759,35 +753,35 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.123</v>
+        <v>0.555</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45460.64587106481</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>5.812</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45460.73847521991</v>
+        <v>45497.65423505787</v>
       </c>
       <c r="I5" t="n">
-        <v>165.24</v>
+        <v>5.801</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>correction</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0.2</v>
+        <v>3.23</v>
       </c>
       <c r="M5" t="n">
-        <v>20.32</v>
+        <v>3.22</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -802,18 +796,18 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="n">
-        <v>1343394966</v>
+        <v>1393281432</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SMFG.US</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -822,35 +816,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.4344</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45446.90410443287</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G6" t="n">
-        <v>13.37</v>
+        <v>5.981</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45460.88503490741</v>
+        <v>45497.65423550926</v>
       </c>
       <c r="I6" t="n">
-        <v>12.62</v>
+        <v>5.968</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>13.37</v>
+        <v>2.6</v>
       </c>
       <c r="M6" t="n">
-        <v>12.62</v>
+        <v>2.59</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -865,18 +859,18 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.75</v>
+        <v>-0.01</v>
       </c>
       <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="n">
-        <v>1349530190</v>
+        <v>1393281260</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NVDA.US</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -885,35 +879,35 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45452.64409975694</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G7" t="n">
-        <v>118.42</v>
+        <v>5.812</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45464.64586856482</v>
+        <v>45497.65424290509</v>
       </c>
       <c r="I7" t="n">
-        <v>126.75</v>
+        <v>5.814</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>correction</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>14.21</v>
+        <v>5.81</v>
       </c>
       <c r="M7" t="n">
-        <v>15.21</v>
+        <v>5.81</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -928,22 +922,18 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>NVDA.US split 10 for 1</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="n">
-        <v>1343379129</v>
+        <v>1393281432</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>QCOM.US</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -952,35 +942,35 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0975</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45446.89366082176</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G8" t="n">
-        <v>205.08</v>
+        <v>5.981</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45464.6458686574</v>
+        <v>45497.65424459491</v>
       </c>
       <c r="I8" t="n">
-        <v>211.24</v>
+        <v>5.978</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>20</v>
+        <v>5.98</v>
       </c>
       <c r="M8" t="n">
-        <v>20.6</v>
+        <v>5.98</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -995,18 +985,18 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="n">
-        <v>1349530190</v>
+        <v>1393281260</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NVDA.US</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1015,35 +1005,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.051</v>
+        <v>0.4206</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45452.64409975694</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G9" t="n">
-        <v>118.42</v>
+        <v>5.812</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45464.64586949074</v>
+        <v>45504.63556305556</v>
       </c>
       <c r="I9" t="n">
-        <v>126.76</v>
+        <v>5.826</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>correction</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6.04</v>
+        <v>2.44</v>
       </c>
       <c r="M9" t="n">
-        <v>6.46</v>
+        <v>2.45</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1058,22 +1048,18 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>NVDA.US split 10 for 1</t>
-        </is>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="n">
-        <v>1357737013</v>
+        <v>1393281432</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AVGO.US</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1082,35 +1068,35 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0115</v>
+        <v>0.4033</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45460.68557657408</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G10" t="n">
-        <v>1797.13</v>
+        <v>5.981</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45464.65982668981</v>
+        <v>45504.6355634375</v>
       </c>
       <c r="I10" t="n">
-        <v>1686.26</v>
+        <v>5.98</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>20.67</v>
+        <v>2.41</v>
       </c>
       <c r="M10" t="n">
-        <v>19.39</v>
+        <v>2.41</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1125,18 +1111,18 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.28</v>
+        <v>0</v>
       </c>
       <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="n">
-        <v>1362492338</v>
+        <v>1393281432</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GILD.US</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1145,35 +1131,35 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2806</v>
+        <v>0.4201</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45464.66150739583</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G11" t="n">
-        <v>71.61</v>
+        <v>5.981</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45464.66725368056</v>
+        <v>45504.64158128472</v>
       </c>
       <c r="I11" t="n">
-        <v>70.95999999999999</v>
+        <v>5.98</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20.09</v>
+        <v>2.51</v>
       </c>
       <c r="M11" t="n">
-        <v>19.91</v>
+        <v>2.51</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1188,18 +1174,18 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="n">
-        <v>1342641165</v>
+        <v>1393281432</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1208,35 +1194,35 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.1322</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45446.64586891203</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G12" t="n">
-        <v>155.59</v>
+        <v>5.981</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45478.65186430555</v>
+        <v>45726.37522701389</v>
       </c>
       <c r="I12" t="n">
-        <v>183.6</v>
+        <v>6.186</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>20.57</v>
+        <v>5.98</v>
       </c>
       <c r="M12" t="n">
-        <v>24.27</v>
+        <v>6.19</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1251,18 +1237,18 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>3.7</v>
+        <v>0.21</v>
       </c>
       <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="n">
-        <v>1347626622</v>
+        <v>1393281260</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WMT.US</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1271,35 +1257,35 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.1488</v>
+        <v>1.4632</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45449.86760850695</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G13" t="n">
-        <v>67.2</v>
+        <v>5.812</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45481.65772898148</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I13" t="n">
-        <v>69.65000000000001</v>
+        <v>6.02</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="M13" t="n">
-        <v>10.36</v>
+        <v>8.81</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1314,18 +1300,18 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="n">
-        <v>1393281432</v>
+        <v>1393287040</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FLOA.UK</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1334,19 +1320,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.632</v>
+        <v>0.2503</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45496.37755140047</v>
       </c>
       <c r="G14" t="n">
-        <v>5.981</v>
+        <v>5.811</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45496.61775418981</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I14" t="n">
-        <v>5.967</v>
+        <v>6.02</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1359,10 +1345,10 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.78</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="n">
-        <v>3.77</v>
+        <v>1.51</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1377,18 +1363,18 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.01</v>
+        <v>0.06</v>
       </c>
       <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="n">
-        <v>1393281260</v>
+        <v>1403180431</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SDIA.UK</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1397,19 +1383,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5612</v>
+        <v>0.2773</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45504.64299350695</v>
       </c>
       <c r="G15" t="n">
-        <v>5.812</v>
+        <v>5.84</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45496.61775451389</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I15" t="n">
-        <v>5.81</v>
+        <v>6.02</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1422,10 +1408,10 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.26</v>
+        <v>1.62</v>
       </c>
       <c r="M15" t="n">
-        <v>3.26</v>
+        <v>1.67</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1440,18 +1426,18 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="n">
-        <v>1362562387</v>
+        <v>1403180445</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DUK.US</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1460,35 +1446,35 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.202</v>
+        <v>0.0092</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45464.67381712963</v>
+        <v>45504.64300175926</v>
       </c>
       <c r="G16" t="n">
-        <v>100.78</v>
+        <v>5.836</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45481.67021972223</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I16" t="n">
-        <v>100.83</v>
+        <v>6.02</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>20.36</v>
+        <v>0.05</v>
       </c>
       <c r="M16" t="n">
-        <v>20.37</v>
+        <v>0.06</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1510,11 +1496,11 @@
     <row r="17">
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="n">
-        <v>1393281260</v>
+        <v>1393735509</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SDIA.UK</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1523,19 +1509,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.555</v>
+        <v>0.0366</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45496.61777673611</v>
       </c>
       <c r="G17" t="n">
-        <v>5.812</v>
+        <v>67.37</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45497.65423505787</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I17" t="n">
-        <v>5.801</v>
+        <v>71.16</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1548,10 +1534,10 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.23</v>
+        <v>2.47</v>
       </c>
       <c r="M17" t="n">
-        <v>3.22</v>
+        <v>2.6</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1566,18 +1552,18 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.01</v>
+        <v>0.13</v>
       </c>
       <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="n">
-        <v>1393281432</v>
+        <v>1395218355</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FLOA.UK</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1586,19 +1572,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.4344</v>
+        <v>0.074</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45497.65423574074</v>
       </c>
       <c r="G18" t="n">
-        <v>5.981</v>
+        <v>67.13</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45497.65423550926</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I18" t="n">
-        <v>5.968</v>
+        <v>71.16</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1611,10 +1597,10 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.6</v>
+        <v>4.97</v>
       </c>
       <c r="M18" t="n">
-        <v>2.59</v>
+        <v>5.27</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1629,18 +1615,18 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.01</v>
+        <v>0.3</v>
       </c>
       <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="n">
-        <v>1393281260</v>
+        <v>1403166009</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SDIA.UK</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1649,19 +1635,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.0362</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45504.63556387732</v>
       </c>
       <c r="G19" t="n">
-        <v>5.812</v>
+        <v>68.05</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45497.65424290509</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I19" t="n">
-        <v>5.814</v>
+        <v>71.16</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1674,10 +1660,10 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5.81</v>
+        <v>2.46</v>
       </c>
       <c r="M19" t="n">
-        <v>5.81</v>
+        <v>2.58</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1692,18 +1678,18 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="n">
-        <v>1393281432</v>
+        <v>1403177543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FLOA.UK</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1712,19 +1698,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0.0368</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45504.64158137731</v>
       </c>
       <c r="G20" t="n">
-        <v>5.981</v>
+        <v>68.045</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45497.65424459491</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I20" t="n">
-        <v>5.978</v>
+        <v>71.16</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1737,10 +1723,10 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5.98</v>
+        <v>2.5</v>
       </c>
       <c r="M20" t="n">
-        <v>5.98</v>
+        <v>2.62</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1755,18 +1741,18 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
-        <v>1362488938</v>
+        <v>1403180429</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NEE.US</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1775,35 +1761,35 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2742</v>
+        <v>0.0733</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45464.66097233797</v>
+        <v>45504.6429933912</v>
       </c>
       <c r="G21" t="n">
-        <v>72.93000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45481.77903942129</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I21" t="n">
-        <v>72.29000000000001</v>
+        <v>71.16</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>20</v>
+        <v>4.99</v>
       </c>
       <c r="M21" t="n">
-        <v>19.82</v>
+        <v>5.22</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1818,18 +1804,18 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.18</v>
+        <v>0.23</v>
       </c>
       <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
-        <v>1393281260</v>
+        <v>1403180445</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SDIA.UK</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1838,19 +1824,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.4206</v>
+        <v>0.9908</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45504.64300175926</v>
       </c>
       <c r="G22" t="n">
-        <v>5.812</v>
+        <v>5.836</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45504.63556305556</v>
+        <v>45726.43231427083</v>
       </c>
       <c r="I22" t="n">
-        <v>5.826</v>
+        <v>6.027</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1863,10 +1849,10 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.44</v>
+        <v>5.78</v>
       </c>
       <c r="M22" t="n">
-        <v>2.45</v>
+        <v>5.97</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1881,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="U22" t="inlineStr"/>
     </row>
@@ -1892,7 +1878,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FLOA.UK</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1901,7 +1887,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.4033</v>
+        <v>0.1102</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>45496.37566553241</v>
@@ -1910,10 +1896,10 @@
         <v>5.981</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45504.6355634375</v>
+        <v>45727.38638285879</v>
       </c>
       <c r="I23" t="n">
-        <v>5.98</v>
+        <v>6.176</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1926,10 +1912,10 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.41</v>
+        <v>0.66</v>
       </c>
       <c r="M23" t="n">
-        <v>2.41</v>
+        <v>0.68</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -1944,18 +1930,18 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
-        <v>1375967973</v>
+        <v>1393301698</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1964,35 +1950,35 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.109</v>
+        <v>0.1401</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45478.67815513889</v>
+        <v>45496.37886077546</v>
       </c>
       <c r="G24" t="n">
-        <v>183</v>
+        <v>5.99</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45481.81205453704</v>
+        <v>45727.38638285879</v>
       </c>
       <c r="I24" t="n">
-        <v>186.5</v>
+        <v>6.176</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>19.95</v>
+        <v>0.84</v>
       </c>
       <c r="M24" t="n">
-        <v>20.33</v>
+        <v>0.87</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2007,18 +1993,18 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.39</v>
+        <v>0.03</v>
       </c>
       <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
-        <v>1393281432</v>
+        <v>1403180427</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FLOA.UK</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2027,19 +2013,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.4201</v>
+        <v>0.4203</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45504.64299328704</v>
       </c>
       <c r="G25" t="n">
-        <v>5.981</v>
+        <v>5.989</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45504.64158128472</v>
+        <v>45727.38638285879</v>
       </c>
       <c r="I25" t="n">
-        <v>5.98</v>
+        <v>6.176</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2052,10 +2038,10 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="M25" t="n">
-        <v>2.51</v>
+        <v>2.6</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2070,18 +2056,18 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="n">
-        <v>1393281432</v>
+        <v>1342063955</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FLOA.UK</t>
+          <t>SHELL.AS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2090,35 +2076,35 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0.4139</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45446.37534833333</v>
       </c>
       <c r="G26" t="n">
-        <v>5.981</v>
+        <v>33.545</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45726.37522701389</v>
+        <v>45453.66360037037</v>
       </c>
       <c r="I26" t="n">
-        <v>6.186</v>
+        <v>32.605</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5.98</v>
+        <v>15.15</v>
       </c>
       <c r="M26" t="n">
-        <v>6.19</v>
+        <v>14.42</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2133,18 +2119,18 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0.21</v>
+        <v>-0.73</v>
       </c>
       <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="n">
-        <v>1393281260</v>
+        <v>1350877137</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SDIA.UK</t>
+          <t>US30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2153,39 +2139,41 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.4632</v>
+        <v>0.01</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45453.90555224537</v>
       </c>
       <c r="G27" t="n">
-        <v>5.812</v>
+        <v>38900</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45453.90972410879</v>
       </c>
       <c r="I27" t="n">
-        <v>6.02</v>
+        <v>38869</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M27" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+          <t>pending(t/p|s/l)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>38874</v>
+      </c>
+      <c r="O27" t="n">
+        <v>38933</v>
+      </c>
+      <c r="P27" t="n">
+        <v>9.73</v>
+      </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
@@ -2196,18 +2184,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="U27" t="inlineStr"/>
+        <v>-1.55</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="n">
-        <v>1393287040</v>
+        <v>1357581812</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SDIA.UK</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2216,35 +2208,35 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2503</v>
+        <v>0.123</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45496.37755140047</v>
+        <v>45460.64587106481</v>
       </c>
       <c r="G28" t="n">
-        <v>5.811</v>
+        <v>1.65</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45460.73847521991</v>
       </c>
       <c r="I28" t="n">
-        <v>6.02</v>
+        <v>165.24</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>correction</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.45</v>
+        <v>0.2</v>
       </c>
       <c r="M28" t="n">
-        <v>1.51</v>
+        <v>20.32</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2259,18 +2251,18 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="n">
-        <v>1375856858</v>
+        <v>1343394966</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GOOGL.US</t>
+          <t>SMFG</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2279,19 +2271,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.1052</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45478.65581936343</v>
+        <v>45446.90410443287</v>
       </c>
       <c r="G29" t="n">
-        <v>188.48</v>
+        <v>13.37</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45481.82631694445</v>
+        <v>45460.88503490741</v>
       </c>
       <c r="I29" t="n">
-        <v>189.21</v>
+        <v>12.62</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2304,10 +2296,10 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>19.83</v>
+        <v>13.37</v>
       </c>
       <c r="M29" t="n">
-        <v>19.9</v>
+        <v>12.62</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2322,18 +2314,18 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.75</v>
       </c>
       <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="n">
-        <v>1403180431</v>
+        <v>1349530190</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SDIA.UK</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2342,35 +2334,35 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.2773</v>
+        <v>0.12</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45504.64299350695</v>
+        <v>45452.64409975694</v>
       </c>
       <c r="G30" t="n">
-        <v>5.84</v>
+        <v>118.42</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45464.64586856482</v>
       </c>
       <c r="I30" t="n">
-        <v>6.02</v>
+        <v>126.75</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>correction</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.62</v>
+        <v>14.21</v>
       </c>
       <c r="M30" t="n">
-        <v>1.67</v>
+        <v>15.21</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2385,18 +2377,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="U30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NVDA.US split 10 for 1</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="n">
-        <v>1403180445</v>
+        <v>1343379129</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SDIA.UK</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2405,35 +2401,35 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.0092</v>
+        <v>0.0975</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45504.64300175926</v>
+        <v>45446.89366082176</v>
       </c>
       <c r="G31" t="n">
-        <v>5.836</v>
+        <v>205.08</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45464.6458686574</v>
       </c>
       <c r="I31" t="n">
-        <v>6.02</v>
+        <v>211.24</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>0.05</v>
+        <v>20</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06</v>
+        <v>20.6</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2448,18 +2444,18 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
-        <v>1393735509</v>
+        <v>1349530190</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VHYD.UK</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2468,35 +2464,35 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.0366</v>
+        <v>0.051</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45496.61777673611</v>
+        <v>45452.64409975694</v>
       </c>
       <c r="G32" t="n">
-        <v>67.37</v>
+        <v>118.42</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45464.64586949074</v>
       </c>
       <c r="I32" t="n">
-        <v>71.16</v>
+        <v>126.76</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>correction</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.47</v>
+        <v>6.04</v>
       </c>
       <c r="M32" t="n">
-        <v>2.6</v>
+        <v>6.46</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2511,18 +2507,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="U32" t="inlineStr"/>
+        <v>0.42</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NVDA.US split 10 for 1</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="n">
-        <v>1357595824</v>
+        <v>1357737013</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LEVI.US</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2531,19 +2531,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0.0115</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45460.64611910879</v>
+        <v>45460.68557657408</v>
       </c>
       <c r="G33" t="n">
-        <v>22.89</v>
+        <v>1797.13</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45482.71325359954</v>
+        <v>45464.65982668981</v>
       </c>
       <c r="I33" t="n">
-        <v>18.62</v>
+        <v>1686.26</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2556,10 +2556,10 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>22.89</v>
+        <v>20.67</v>
       </c>
       <c r="M33" t="n">
-        <v>18.62</v>
+        <v>19.39</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2574,18 +2574,18 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-4.27</v>
+        <v>-1.28</v>
       </c>
       <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="n">
-        <v>1395218355</v>
+        <v>1362492338</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>VHYD.UK</t>
+          <t>GILD</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2594,35 +2594,35 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.074</v>
+        <v>0.2806</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45497.65423574074</v>
+        <v>45464.66150739583</v>
       </c>
       <c r="G34" t="n">
-        <v>67.13</v>
+        <v>71.61</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45464.66725368056</v>
       </c>
       <c r="I34" t="n">
-        <v>71.16</v>
+        <v>70.95999999999999</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.97</v>
+        <v>20.09</v>
       </c>
       <c r="M34" t="n">
-        <v>5.27</v>
+        <v>19.91</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2637,18 +2637,18 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3</v>
+        <v>-0.18</v>
       </c>
       <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="n">
-        <v>1403166009</v>
+        <v>1342641165</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>VHYD.UK</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2657,35 +2657,35 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.0362</v>
+        <v>0.1322</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45504.63556387732</v>
+        <v>45446.64586891203</v>
       </c>
       <c r="G35" t="n">
-        <v>68.05</v>
+        <v>155.59</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45478.65186430555</v>
       </c>
       <c r="I35" t="n">
-        <v>71.16</v>
+        <v>183.6</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.46</v>
+        <v>20.57</v>
       </c>
       <c r="M35" t="n">
-        <v>2.58</v>
+        <v>24.27</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2700,18 +2700,18 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.12</v>
+        <v>3.7</v>
       </c>
       <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
-        <v>1403177543</v>
+        <v>1347626622</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>VHYD.UK</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2720,35 +2720,35 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.0368</v>
+        <v>0.1488</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45504.64158137731</v>
+        <v>45449.86760850695</v>
       </c>
       <c r="G36" t="n">
-        <v>68.045</v>
+        <v>67.2</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45481.65772898148</v>
       </c>
       <c r="I36" t="n">
-        <v>71.16</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="M36" t="n">
-        <v>2.62</v>
+        <v>10.36</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2763,18 +2763,18 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
-        <v>1403180429</v>
+        <v>1362562387</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VHYD.UK</t>
+          <t>DUK</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2783,35 +2783,35 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.0733</v>
+        <v>0.202</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45504.6429933912</v>
+        <v>45464.67381712963</v>
       </c>
       <c r="G37" t="n">
-        <v>68.01000000000001</v>
+        <v>100.78</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45481.67021972223</v>
       </c>
       <c r="I37" t="n">
-        <v>71.16</v>
+        <v>100.83</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4.99</v>
+        <v>20.36</v>
       </c>
       <c r="M37" t="n">
-        <v>5.22</v>
+        <v>20.37</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2826,18 +2826,18 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="n">
-        <v>1403180445</v>
+        <v>1362488938</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SDIA.UK</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2846,35 +2846,35 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.9908</v>
+        <v>0.2742</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45504.64300175926</v>
+        <v>45464.66097233797</v>
       </c>
       <c r="G38" t="n">
-        <v>5.836</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45726.43231427083</v>
+        <v>45481.77903942129</v>
       </c>
       <c r="I38" t="n">
-        <v>6.027</v>
+        <v>72.29000000000001</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>5.78</v>
+        <v>20</v>
       </c>
       <c r="M38" t="n">
-        <v>5.97</v>
+        <v>19.82</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2889,18 +2889,18 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.18</v>
+        <v>-0.18</v>
       </c>
       <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="n">
-        <v>1393281432</v>
+        <v>1375967973</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FLOA.UK</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2909,35 +2909,35 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.1102</v>
+        <v>0.109</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45478.67815513889</v>
       </c>
       <c r="G39" t="n">
-        <v>5.981</v>
+        <v>183</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45727.38638285879</v>
+        <v>45481.81205453704</v>
       </c>
       <c r="I39" t="n">
-        <v>6.176</v>
+        <v>186.5</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>0.66</v>
+        <v>19.95</v>
       </c>
       <c r="M39" t="n">
-        <v>0.68</v>
+        <v>20.33</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -2952,18 +2952,18 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02</v>
+        <v>0.39</v>
       </c>
       <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
-        <v>1393301698</v>
+        <v>1375856858</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FLOA.UK</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2972,35 +2972,35 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1401</v>
+        <v>0.1052</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>45496.37886077546</v>
+        <v>45478.65581936343</v>
       </c>
       <c r="G40" t="n">
-        <v>5.99</v>
+        <v>188.48</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45727.38638285879</v>
+        <v>45481.82631694445</v>
       </c>
       <c r="I40" t="n">
-        <v>6.176</v>
+        <v>189.21</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0.84</v>
+        <v>19.83</v>
       </c>
       <c r="M40" t="n">
-        <v>0.87</v>
+        <v>19.9</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3015,18 +3015,18 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="n">
-        <v>1403180427</v>
+        <v>1357595824</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FLOA.UK</t>
+          <t>LEVI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3035,35 +3035,35 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.4203</v>
+        <v>1</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>45504.64299328704</v>
+        <v>45460.64611910879</v>
       </c>
       <c r="G41" t="n">
-        <v>5.989</v>
+        <v>22.89</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45727.38638285879</v>
+        <v>45482.71325359954</v>
       </c>
       <c r="I41" t="n">
-        <v>6.176</v>
+        <v>18.62</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.52</v>
+        <v>22.89</v>
       </c>
       <c r="M41" t="n">
-        <v>2.6</v>
+        <v>18.62</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.08</v>
+        <v>-4.27</v>
       </c>
       <c r="U41" t="inlineStr"/>
     </row>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3215,7 +3215,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NVDA.US</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NVDA.US</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TSM.US</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AEP.US</t>
+          <t>AEP</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AEP.US</t>
+          <t>AEP</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GOOGL.US</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SQM.US</t>
+          <t>SQM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3656,7 +3656,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SQM.US</t>
+          <t>SQM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MSFT.US</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PANW.US</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>V.US</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AMAT.US</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>AMAT.US</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GOOGL.US</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4158,7 +4158,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GC=F</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GC=F</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GC=F</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GC=F</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GC=F</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GC=F</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GC=F</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>GC=F</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>^VIX</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NVDA.US</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>JPY=X</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>JPY=X</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>JPY=X</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>JPY=X</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -6027,7 +6027,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MC.FR</t>
+          <t>MC.PA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MC.FR</t>
+          <t>MC.PA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -7042,7 +7042,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ASML.US</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ASML.US</t>
+          <t>ASML</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -7168,7 +7168,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MAXN.US</t>
+          <t>MAXN</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>GOOGL.US</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>QCOM.US</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>QCOM.US</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>V.US</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -7483,7 +7483,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>V.US</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -7546,7 +7546,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>V.US</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>YUM.US</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>YUM.US</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>YUM.US</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -7867,7 +7867,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>AAPL.US</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>AAPL.US</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -8062,7 +8062,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>AAPL.US</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>AAPL.US</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ING.US</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MA.US</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>KMB.US</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PEP.US</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MO.US</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EXC.US</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EXC.US</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>EXC.US</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>US500</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>US500</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>US500</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -8944,7 +8944,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>EXC.US</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -9212,7 +9212,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>KMB.US</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -9275,7 +9275,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>USDMXN</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MSFT.US</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MSFT.US</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MSFT.US</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>V.US</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MA.US</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -9838,7 +9838,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MA.US</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>FSLR.US</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>FSLR.US</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>FSLR.US</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -10090,7 +10090,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>FSLR.US</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>FSLR.US</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>FSLR.US</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MSFT.US</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -10342,7 +10342,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MSFT.US</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -10405,7 +10405,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MSFT.US</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">

--- a/Stock Selection/CLOSED POSITION HISTORY.xlsx
+++ b/Stock Selection/CLOSED POSITION HISTORY.xlsx
@@ -6156,11 +6156,11 @@
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="n">
-        <v>1495548850</v>
+        <v>1393281432</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -6169,35 +6169,35 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.1047</v>
+        <v>0.632</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>45580.70599549769</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G89" t="n">
-        <v>133.61</v>
+        <v>5.981</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>45695.85266428241</v>
+        <v>45496.61775418981</v>
       </c>
       <c r="I89" t="n">
-        <v>143.18</v>
+        <v>5.967</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>13.99</v>
+        <v>3.78</v>
       </c>
       <c r="M89" t="n">
-        <v>14.99</v>
+        <v>3.77</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6212,14 +6212,14 @@
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>1</v>
+        <v>-0.01</v>
       </c>
       <c r="U89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="n">
-        <v>1517512112</v>
+        <v>1495548850</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.1047</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>45597.61040866898</v>
+        <v>45580.70599549769</v>
       </c>
       <c r="G90" t="n">
-        <v>132.62</v>
+        <v>133.61</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>45695.85266428241</v>
@@ -6257,10 +6257,10 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>10</v>
+        <v>13.99</v>
       </c>
       <c r="M90" t="n">
-        <v>10.8</v>
+        <v>14.99</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6275,18 +6275,18 @@
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="n">
-        <v>1582735114</v>
+        <v>1393281260</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6295,35 +6295,35 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.5612</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>45645.90076787037</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G91" t="n">
-        <v>130.51</v>
+        <v>5.812</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>45695.85266428241</v>
+        <v>45496.61775451389</v>
       </c>
       <c r="I91" t="n">
-        <v>143.18</v>
+        <v>5.81</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>xStation Mobile Android</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>9.960000000000001</v>
+        <v>3.26</v>
       </c>
       <c r="M91" t="n">
-        <v>10.92</v>
+        <v>3.26</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6338,18 +6338,18 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="U91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="n">
-        <v>1657658561</v>
+        <v>1517512112</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.02</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>45702.18774210648</v>
+        <v>45597.61040866898</v>
       </c>
       <c r="G92" t="n">
-        <v>20.4257</v>
+        <v>132.62</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>45702.56168643518</v>
+        <v>45695.85266428241</v>
       </c>
       <c r="I92" t="n">
-        <v>20.3656</v>
+        <v>143.18</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -6382,17 +6382,15 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
-        <v>20.3664</v>
-      </c>
-      <c r="O92" t="n">
-        <v>20.5213</v>
-      </c>
-      <c r="P92" t="n">
+      <c r="L92" t="n">
         <v>10</v>
       </c>
+      <c r="M92" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
       <c r="Q92" t="n">
         <v>0</v>
       </c>
@@ -6403,22 +6401,18 @@
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>-5.9</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="U92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="n">
-        <v>1660829104</v>
+        <v>1393281260</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -6427,41 +6421,39 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.02</v>
+        <v>0.555</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>45705.64981799768</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G93" t="n">
-        <v>20.3237</v>
+        <v>5.812</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>45705.72866341435</v>
+        <v>45497.65423505787</v>
       </c>
       <c r="I93" t="n">
-        <v>20.2738</v>
+        <v>5.801</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
-        <v>20.2738</v>
-      </c>
-      <c r="O93" t="n">
-        <v>20.3936</v>
-      </c>
-      <c r="P93" t="n">
-        <v>10</v>
-      </c>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
       <c r="Q93" t="n">
         <v>0</v>
       </c>
@@ -6472,22 +6464,18 @@
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>-0.01</v>
+      </c>
+      <c r="U93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="n">
-        <v>1378903852</v>
+        <v>1393281432</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6496,35 +6484,35 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.0616</v>
+        <v>0.4344</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>45482.71372086806</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G94" t="n">
-        <v>227.77</v>
+        <v>5.981</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>45706.65274813658</v>
+        <v>45497.65423550926</v>
       </c>
       <c r="I94" t="n">
-        <v>243.58</v>
+        <v>5.968</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>14.03</v>
+        <v>2.6</v>
       </c>
       <c r="M94" t="n">
-        <v>15</v>
+        <v>2.59</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -6539,18 +6527,18 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0.97</v>
+        <v>-0.01</v>
       </c>
       <c r="U94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="n">
-        <v>1378903852</v>
+        <v>1582735114</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6559,23 +6547,23 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.0042</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>45482.71372086806</v>
+        <v>45645.90076787037</v>
       </c>
       <c r="G95" t="n">
-        <v>227.77</v>
+        <v>130.51</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>45706.65290153935</v>
+        <v>45695.85266428241</v>
       </c>
       <c r="I95" t="n">
-        <v>243.45</v>
+        <v>143.18</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation Mobile Android</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6584,10 +6572,10 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>0.96</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="M95" t="n">
-        <v>1.02</v>
+        <v>10.92</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -6602,18 +6590,18 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>0.06</v>
+        <v>0.96</v>
       </c>
       <c r="U95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="n">
-        <v>1456814919</v>
+        <v>1393281260</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6622,35 +6610,35 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.0665</v>
+        <v>1</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>45548.6657375</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G96" t="n">
-        <v>222.94</v>
+        <v>5.812</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>45706.65290153935</v>
+        <v>45497.65424290509</v>
       </c>
       <c r="I96" t="n">
-        <v>243.45</v>
+        <v>5.814</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>14.83</v>
+        <v>5.81</v>
       </c>
       <c r="M96" t="n">
-        <v>16.19</v>
+        <v>5.81</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -6665,18 +6653,18 @@
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="U96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="n">
-        <v>1499061783</v>
+        <v>1657658561</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6685,23 +6673,23 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.0558</v>
+        <v>0.02</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>45582.73996877314</v>
+        <v>45702.18774210648</v>
       </c>
       <c r="G97" t="n">
-        <v>232.2</v>
+        <v>20.4257</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>45706.65290153935</v>
+        <v>45702.56168643518</v>
       </c>
       <c r="I97" t="n">
-        <v>243.45</v>
+        <v>20.3656</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6709,15 +6697,17 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="M97" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>20.3664</v>
+      </c>
+      <c r="O97" t="n">
+        <v>20.5213</v>
+      </c>
+      <c r="P97" t="n">
+        <v>10</v>
+      </c>
       <c r="Q97" t="n">
         <v>0</v>
       </c>
@@ -6728,18 +6718,22 @@
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="U97" t="inlineStr"/>
+        <v>-5.9</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="n">
-        <v>1717095547</v>
+        <v>1393281432</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6748,67 +6742,61 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>45736.81342114583</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G98" t="n">
-        <v>20.1198</v>
+        <v>5.981</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>45737.11337774306</v>
+        <v>45497.65424459491</v>
       </c>
       <c r="I98" t="n">
-        <v>20.1348</v>
+        <v>5.978</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
-        <v>20.1349</v>
-      </c>
-      <c r="O98" t="n">
-        <v>20.1623</v>
-      </c>
-      <c r="P98" t="n">
-        <v>20</v>
-      </c>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
       <c r="Q98" t="n">
         <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="n">
-        <v>1554741910</v>
+        <v>1393281260</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6817,35 +6805,35 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.61</v>
+        <v>0.4206</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>45623.74951100694</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G99" t="n">
-        <v>15.3</v>
+        <v>5.812</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>45741.87177293981</v>
+        <v>45504.63556305556</v>
       </c>
       <c r="I99" t="n">
-        <v>20.29</v>
+        <v>5.826</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>9.33</v>
+        <v>2.44</v>
       </c>
       <c r="M99" t="n">
-        <v>12.38</v>
+        <v>2.45</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -6860,18 +6848,18 @@
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>3.05</v>
+        <v>0.01</v>
       </c>
       <c r="U99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="n">
-        <v>1414372592</v>
+        <v>1393281432</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6880,35 +6868,35 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.01</v>
+        <v>0.4033</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>45511.7228721412</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G100" t="n">
-        <v>455.4</v>
+        <v>5.981</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>45742.77596394676</v>
+        <v>45504.6355634375</v>
       </c>
       <c r="I100" t="n">
-        <v>547.14</v>
+        <v>5.98</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>4.55</v>
+        <v>2.41</v>
       </c>
       <c r="M100" t="n">
-        <v>5.47</v>
+        <v>2.41</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -6923,18 +6911,18 @@
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="U100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="n">
-        <v>1450043624</v>
+        <v>1660829104</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6943,19 +6931,19 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.0138</v>
+        <v>0.02</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>45544.65163506944</v>
+        <v>45705.64981799768</v>
       </c>
       <c r="G101" t="n">
-        <v>147.48</v>
+        <v>20.3237</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>45743.76599777778</v>
+        <v>45705.72866341435</v>
       </c>
       <c r="I101" t="n">
-        <v>139.86</v>
+        <v>20.2738</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -6967,15 +6955,17 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>20.2738</v>
+      </c>
+      <c r="O101" t="n">
+        <v>20.3936</v>
+      </c>
+      <c r="P101" t="n">
+        <v>10</v>
+      </c>
       <c r="Q101" t="n">
         <v>0</v>
       </c>
@@ -6986,18 +6976,22 @@
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>-0.11</v>
-      </c>
-      <c r="U101" t="inlineStr"/>
+        <v>-4.92</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="n">
-        <v>1358151307</v>
+        <v>1393281432</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -7006,35 +7000,35 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.0124</v>
+        <v>0.4201</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>45460.88529037037</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G102" t="n">
-        <v>165.93</v>
+        <v>5.981</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>45743.76632650463</v>
+        <v>45504.64158128472</v>
       </c>
       <c r="I102" t="n">
-        <v>149.33</v>
+        <v>5.98</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.06</v>
+        <v>2.51</v>
       </c>
       <c r="M102" t="n">
-        <v>1.85</v>
+        <v>2.51</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -7049,18 +7043,18 @@
         <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
       <c r="U102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="n">
-        <v>1422773288</v>
+        <v>1378903852</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -7069,19 +7063,19 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.2</v>
+        <v>0.0616</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>45518.84428505787</v>
+        <v>45482.71372086806</v>
       </c>
       <c r="G103" t="n">
-        <v>51.24</v>
+        <v>227.77</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>45743.76769060185</v>
+        <v>45706.65274813658</v>
       </c>
       <c r="I103" t="n">
-        <v>58.08</v>
+        <v>243.58</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -7094,10 +7088,10 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>10.25</v>
+        <v>14.03</v>
       </c>
       <c r="M103" t="n">
-        <v>11.62</v>
+        <v>15</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -7112,18 +7106,18 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>1.37</v>
+        <v>0.97</v>
       </c>
       <c r="U103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="n">
-        <v>1631473921</v>
+        <v>1393281432</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -7132,23 +7126,23 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.2745</v>
+        <v>1</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>45685.8356116088</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G104" t="n">
-        <v>40.05</v>
+        <v>5.981</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>45754.64763142361</v>
+        <v>45726.37522701389</v>
       </c>
       <c r="I104" t="n">
-        <v>44.8</v>
+        <v>6.186</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7157,10 +7151,10 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>10.99</v>
+        <v>5.98</v>
       </c>
       <c r="M104" t="n">
-        <v>12.3</v>
+        <v>6.19</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -7175,18 +7169,18 @@
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>1.31</v>
+        <v>0.21</v>
       </c>
       <c r="U104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="n">
-        <v>1642763333</v>
+        <v>1393281260</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -7195,23 +7189,23 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.2459</v>
+        <v>1.4632</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>45692.86672944445</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G105" t="n">
-        <v>40.66</v>
+        <v>5.812</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>45754.64763142361</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I105" t="n">
-        <v>44.8</v>
+        <v>6.02</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7220,10 +7214,10 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="M105" t="n">
-        <v>11.02</v>
+        <v>8.81</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -7238,18 +7232,18 @@
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>1.02</v>
+        <v>0.3</v>
       </c>
       <c r="U105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="n">
-        <v>1666451221</v>
+        <v>1393287040</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -7258,23 +7252,23 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.1796</v>
+        <v>0.2503</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>45708.68022618056</v>
+        <v>45496.37755140047</v>
       </c>
       <c r="G106" t="n">
-        <v>43</v>
+        <v>5.811</v>
       </c>
       <c r="H106" s="2" t="n">
-        <v>45754.64763142361</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I106" t="n">
-        <v>44.8</v>
+        <v>6.02</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7283,10 +7277,10 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>7.72</v>
+        <v>1.45</v>
       </c>
       <c r="M106" t="n">
-        <v>8.050000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -7301,39 +7295,39 @@
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>0.33</v>
+        <v>0.06</v>
       </c>
       <c r="U106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="n">
-        <v>1749053104</v>
+        <v>1403180431</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.01</v>
+        <v>0.2773</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>45754.65117414352</v>
+        <v>45504.64299350695</v>
       </c>
       <c r="G107" t="n">
-        <v>4903.7</v>
+        <v>5.84</v>
       </c>
       <c r="H107" s="2" t="n">
-        <v>45754.65218731482</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I107" t="n">
-        <v>4891.1</v>
+        <v>6.02</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -7345,13 +7339,15 @@
           <t>xStation 5</t>
         </is>
       </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.67</v>
+      </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
-      <c r="P107" t="n">
-        <v>12.26</v>
-      </c>
+      <c r="P107" t="inlineStr"/>
       <c r="Q107" t="n">
         <v>0</v>
       </c>
@@ -7362,39 +7358,39 @@
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>6.3</v>
+        <v>0.05</v>
       </c>
       <c r="U107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="n">
-        <v>1756767326</v>
+        <v>1403180445</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.01</v>
+        <v>0.0092</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>45756.64805717592</v>
+        <v>45504.64300175926</v>
       </c>
       <c r="G108" t="n">
-        <v>5004.7</v>
+        <v>5.836</v>
       </c>
       <c r="H108" s="2" t="n">
-        <v>45756.64937413194</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I108" t="n">
-        <v>5005.2</v>
+        <v>6.02</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -7406,13 +7402,15 @@
           <t>xStation 5</t>
         </is>
       </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.06</v>
+      </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
-      <c r="P108" t="n">
-        <v>12.51</v>
-      </c>
+      <c r="P108" t="inlineStr"/>
       <c r="Q108" t="n">
         <v>0</v>
       </c>
@@ -7423,57 +7421,59 @@
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>-0.25</v>
+        <v>0.01</v>
       </c>
       <c r="U108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="n">
-        <v>1756797155</v>
+        <v>1378903852</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.01</v>
+        <v>0.0042</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>45756.6510503125</v>
+        <v>45482.71372086806</v>
       </c>
       <c r="G109" t="n">
-        <v>4992.2</v>
+        <v>227.77</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>45756.65185319445</v>
+        <v>45706.65290153935</v>
       </c>
       <c r="I109" t="n">
-        <v>5013.4</v>
+        <v>243.45</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.02</v>
+      </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
-      <c r="P109" t="n">
-        <v>12.48</v>
-      </c>
+      <c r="P109" t="inlineStr"/>
       <c r="Q109" t="n">
         <v>0</v>
       </c>
@@ -7484,18 +7484,18 @@
         <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>-10.6</v>
+        <v>0.06</v>
       </c>
       <c r="U109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="n">
-        <v>1767688540</v>
+        <v>1393735509</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -7504,41 +7504,39 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.01</v>
+        <v>0.0366</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>45761.6294487037</v>
+        <v>45496.61777673611</v>
       </c>
       <c r="G110" t="n">
-        <v>20.1226</v>
+        <v>67.37</v>
       </c>
       <c r="H110" s="2" t="n">
-        <v>45761.66966099537</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I110" t="n">
-        <v>20.047</v>
+        <v>71.16</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
-        <v>20.048</v>
-      </c>
-      <c r="O110" t="n">
-        <v>20.3404</v>
-      </c>
-      <c r="P110" t="n">
-        <v>5</v>
-      </c>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
       <c r="Q110" t="n">
         <v>0</v>
       </c>
@@ -7549,22 +7547,18 @@
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>-3.77</v>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>0.13</v>
+      </c>
+      <c r="U110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="n">
-        <v>1768229183</v>
+        <v>1456814919</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -7573,19 +7567,19 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.01</v>
+        <v>0.0665</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>45761.71402207176</v>
+        <v>45548.6657375</v>
       </c>
       <c r="G111" t="n">
-        <v>20.0759</v>
+        <v>222.94</v>
       </c>
       <c r="H111" s="2" t="n">
-        <v>45761.77371288194</v>
+        <v>45706.65290153935</v>
       </c>
       <c r="I111" t="n">
-        <v>20.1099</v>
+        <v>243.45</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -7597,17 +7591,15 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
-        <v>20.1099</v>
-      </c>
-      <c r="O111" t="n">
-        <v>20.2122</v>
-      </c>
-      <c r="P111" t="n">
-        <v>5</v>
-      </c>
+      <c r="L111" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="M111" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
       <c r="Q111" t="n">
         <v>0</v>
       </c>
@@ -7618,22 +7610,18 @@
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>1.36</v>
+      </c>
+      <c r="U111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="n">
-        <v>1769815245</v>
+        <v>1395218355</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -7642,39 +7630,39 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.01</v>
+        <v>0.074</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>45762.50265097222</v>
+        <v>45497.65423574074</v>
       </c>
       <c r="G112" t="n">
-        <v>20.0545</v>
+        <v>67.13</v>
       </c>
       <c r="H112" s="2" t="n">
-        <v>45762.61225923611</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I112" t="n">
-        <v>19.9735</v>
+        <v>71.16</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
-        <v>19.9742</v>
-      </c>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
-      <c r="P112" t="n">
-        <v>5</v>
-      </c>
+      <c r="P112" t="inlineStr"/>
       <c r="Q112" t="n">
         <v>0</v>
       </c>
@@ -7685,22 +7673,18 @@
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>-4.06</v>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="U112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="n">
-        <v>1666451221</v>
+        <v>1403166009</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -7709,35 +7693,35 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.0528</v>
+        <v>0.0362</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>45708.68022618056</v>
+        <v>45504.63556387732</v>
       </c>
       <c r="G113" t="n">
-        <v>43</v>
+        <v>68.05</v>
       </c>
       <c r="H113" s="2" t="n">
-        <v>45764.85028728009</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I113" t="n">
-        <v>47.89</v>
+        <v>71.16</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.27</v>
+        <v>2.46</v>
       </c>
       <c r="M113" t="n">
-        <v>2.53</v>
+        <v>2.58</v>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -7752,18 +7736,18 @@
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="U113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="n">
-        <v>1450043624</v>
+        <v>1403177543</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -7772,35 +7756,35 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.1</v>
+        <v>0.0368</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>45544.65163506944</v>
+        <v>45504.64158137731</v>
       </c>
       <c r="G114" t="n">
-        <v>147.48</v>
+        <v>68.045</v>
       </c>
       <c r="H114" s="2" t="n">
-        <v>45764.8517803588</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I114" t="n">
-        <v>143.22</v>
+        <v>71.16</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>14.75</v>
+        <v>2.5</v>
       </c>
       <c r="M114" t="n">
-        <v>14.32</v>
+        <v>2.62</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -7815,18 +7799,18 @@
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>-0.42</v>
+        <v>0.12</v>
       </c>
       <c r="U114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="n">
-        <v>1777308201</v>
+        <v>1403180429</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -7835,37 +7819,39 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.01</v>
+        <v>0.0733</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>45768.12181488426</v>
+        <v>45504.6429933912</v>
       </c>
       <c r="G115" t="n">
-        <v>19.7053</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>45768.13306659722</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I115" t="n">
-        <v>19.7154</v>
+        <v>71.16</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5.22</v>
+      </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
-      <c r="P115" t="n">
-        <v>5</v>
-      </c>
+      <c r="P115" t="inlineStr"/>
       <c r="Q115" t="n">
         <v>0</v>
       </c>
@@ -7876,18 +7862,18 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>0.51</v>
+        <v>0.23</v>
       </c>
       <c r="U115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="n">
-        <v>1781449563</v>
+        <v>1403180445</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -7896,37 +7882,39 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.01</v>
+        <v>0.9908</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>45769.73814164352</v>
+        <v>45504.64300175926</v>
       </c>
       <c r="G116" t="n">
-        <v>19.58</v>
+        <v>5.836</v>
       </c>
       <c r="H116" s="2" t="n">
-        <v>45769.76084202546</v>
+        <v>45726.43231427083</v>
       </c>
       <c r="I116" t="n">
-        <v>19.5255</v>
+        <v>6.027</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5.97</v>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
-      <c r="P116" t="n">
-        <v>5</v>
-      </c>
+      <c r="P116" t="inlineStr"/>
       <c r="Q116" t="n">
         <v>0</v>
       </c>
@@ -7937,18 +7925,18 @@
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>-2.79</v>
+        <v>0.18</v>
       </c>
       <c r="U116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="n">
-        <v>1560258921</v>
+        <v>1499061783</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>VBTC.DE</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -7957,23 +7945,23 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0.0558</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>45629.37798611111</v>
+        <v>45582.73996877314</v>
       </c>
       <c r="G117" t="n">
-        <v>48.68</v>
+        <v>232.2</v>
       </c>
       <c r="H117" s="2" t="n">
-        <v>45782.67688657407</v>
+        <v>45706.65290153935</v>
       </c>
       <c r="I117" t="n">
-        <v>44.15</v>
+        <v>243.45</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7982,10 +7970,10 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>51.41</v>
+        <v>12.96</v>
       </c>
       <c r="M117" t="n">
-        <v>49.84</v>
+        <v>13.58</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -8000,18 +7988,18 @@
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>-1.57</v>
+        <v>0.62</v>
       </c>
       <c r="U117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="n">
-        <v>1748583646</v>
+        <v>1717095547</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>VBTC.DE</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -8020,19 +8008,19 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>45754.57938657407</v>
+        <v>45736.81342114583</v>
       </c>
       <c r="G118" t="n">
-        <v>37.258</v>
+        <v>20.1198</v>
       </c>
       <c r="H118" s="2" t="n">
-        <v>45782.67688657407</v>
+        <v>45737.11337774306</v>
       </c>
       <c r="I118" t="n">
-        <v>44.15</v>
+        <v>20.1348</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -8044,37 +8032,43 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>41.06</v>
-      </c>
-      <c r="M118" t="n">
-        <v>49.84</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>20.1349</v>
+      </c>
+      <c r="O118" t="n">
+        <v>20.1623</v>
+      </c>
+      <c r="P118" t="n">
+        <v>20</v>
+      </c>
       <c r="Q118" t="n">
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="U118" t="inlineStr"/>
+        <v>2.98</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="n">
-        <v>1373808226</v>
+        <v>1393281432</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -8083,35 +8077,35 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.0234</v>
+        <v>0.1102</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>45476.6587916088</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G119" t="n">
-        <v>459.24</v>
+        <v>5.981</v>
       </c>
       <c r="H119" s="2" t="n">
-        <v>45784.77664918981</v>
+        <v>45727.38638285879</v>
       </c>
       <c r="I119" t="n">
-        <v>434.71</v>
+        <v>6.176</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>10.75</v>
+        <v>0.66</v>
       </c>
       <c r="M119" t="n">
-        <v>10.17</v>
+        <v>0.68</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -8126,18 +8120,18 @@
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>-0.58</v>
+        <v>0.02</v>
       </c>
       <c r="U119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="n">
-        <v>1426782063</v>
+        <v>1393301698</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -8146,35 +8140,35 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.0372</v>
+        <v>0.1401</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>45523.66633670139</v>
+        <v>45496.37886077546</v>
       </c>
       <c r="G120" t="n">
-        <v>419.46</v>
+        <v>5.99</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>45784.77664918981</v>
+        <v>45727.38638285879</v>
       </c>
       <c r="I120" t="n">
-        <v>434.71</v>
+        <v>6.176</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>15.6</v>
+        <v>0.84</v>
       </c>
       <c r="M120" t="n">
-        <v>16.17</v>
+        <v>0.87</v>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -8189,18 +8183,18 @@
         <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="U120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="n">
-        <v>1426782063</v>
+        <v>1403180427</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8209,35 +8203,35 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.01</v>
+        <v>0.4203</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>45523.66633670139</v>
+        <v>45504.64299328704</v>
       </c>
       <c r="G121" t="n">
-        <v>419.46</v>
+        <v>5.989</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>45785.65885817129</v>
+        <v>45727.38638285879</v>
       </c>
       <c r="I121" t="n">
-        <v>437.05</v>
+        <v>6.176</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>4.19</v>
+        <v>2.52</v>
       </c>
       <c r="M121" t="n">
-        <v>4.37</v>
+        <v>2.6</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -8252,18 +8246,18 @@
         <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="U121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="n">
-        <v>1744929368</v>
+        <v>1554741910</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -8272,23 +8266,23 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.0424</v>
+        <v>0.61</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>45751.7450085301</v>
+        <v>45623.74951100694</v>
       </c>
       <c r="G122" t="n">
-        <v>324.48</v>
+        <v>15.3</v>
       </c>
       <c r="H122" s="2" t="n">
-        <v>45785.65909077547</v>
+        <v>45741.87177293981</v>
       </c>
       <c r="I122" t="n">
-        <v>353.02</v>
+        <v>20.29</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -8297,10 +8291,10 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>13.76</v>
+        <v>9.33</v>
       </c>
       <c r="M122" t="n">
-        <v>14.97</v>
+        <v>12.38</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -8315,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>1.21</v>
+        <v>3.05</v>
       </c>
       <c r="U122" t="inlineStr"/>
     </row>
@@ -8335,7 +8329,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.0229</v>
+        <v>0.01</v>
       </c>
       <c r="F123" s="2" t="n">
         <v>45511.7228721412</v>
@@ -8344,10 +8338,10 @@
         <v>455.4</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>45785.66047934028</v>
+        <v>45742.77596394676</v>
       </c>
       <c r="I123" t="n">
-        <v>568.9299999999999</v>
+        <v>547.14</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -8360,10 +8354,10 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>10.43</v>
+        <v>4.55</v>
       </c>
       <c r="M123" t="n">
-        <v>13.03</v>
+        <v>5.47</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -8378,18 +8372,18 @@
         <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>2.6</v>
+        <v>0.92</v>
       </c>
       <c r="U123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="n">
-        <v>1582737192</v>
+        <v>1450043624</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -8398,23 +8392,23 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.0371</v>
+        <v>0.0138</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>45645.90143914352</v>
+        <v>45544.65163506944</v>
       </c>
       <c r="G124" t="n">
-        <v>524.4299999999999</v>
+        <v>147.48</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>45785.66047934028</v>
+        <v>45743.76599777778</v>
       </c>
       <c r="I124" t="n">
-        <v>568.9299999999999</v>
+        <v>139.86</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>xStation Mobile Android</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -8423,10 +8417,10 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>19.46</v>
+        <v>2.04</v>
       </c>
       <c r="M124" t="n">
-        <v>21.11</v>
+        <v>1.93</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -8441,18 +8435,18 @@
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>1.65</v>
+        <v>-0.11</v>
       </c>
       <c r="U124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="n">
-        <v>1599454287</v>
+        <v>1358151307</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -8461,19 +8455,19 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.0124</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>45663.73715268519</v>
+        <v>45460.88529037037</v>
       </c>
       <c r="G125" t="n">
-        <v>196.49</v>
+        <v>165.93</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>45791.64976413194</v>
+        <v>45743.76632650463</v>
       </c>
       <c r="I125" t="n">
-        <v>196.89</v>
+        <v>149.33</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -8486,10 +8480,10 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>14.99</v>
+        <v>2.06</v>
       </c>
       <c r="M125" t="n">
-        <v>15.02</v>
+        <v>1.85</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -8504,18 +8498,18 @@
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>0.03</v>
+        <v>-0.21</v>
       </c>
       <c r="U125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="n">
-        <v>1621495599</v>
+        <v>1422773288</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -8524,19 +8518,19 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.08169999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>45678.83206015046</v>
+        <v>45518.84428505787</v>
       </c>
       <c r="G126" t="n">
-        <v>183.39</v>
+        <v>51.24</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>45791.64976413194</v>
+        <v>45743.76769060185</v>
       </c>
       <c r="I126" t="n">
-        <v>196.89</v>
+        <v>58.08</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -8549,10 +8543,10 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>14.98</v>
+        <v>10.25</v>
       </c>
       <c r="M126" t="n">
-        <v>16.09</v>
+        <v>11.62</v>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
@@ -8567,18 +8561,18 @@
         <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="U126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="n">
-        <v>1631467534</v>
+        <v>1631473921</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -8587,19 +8581,19 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.2745</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>45685.83235356482</v>
+        <v>45685.8356116088</v>
       </c>
       <c r="G127" t="n">
-        <v>159.74</v>
+        <v>40.05</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>45791.64976413194</v>
+        <v>45754.64763142361</v>
       </c>
       <c r="I127" t="n">
-        <v>196.89</v>
+        <v>44.8</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -8608,14 +8602,14 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>14.97</v>
+        <v>10.99</v>
       </c>
       <c r="M127" t="n">
-        <v>18.45</v>
+        <v>12.3</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -8630,18 +8624,18 @@
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>3.48</v>
+        <v>1.31</v>
       </c>
       <c r="U127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="n">
-        <v>1666449688</v>
+        <v>1642763333</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -8650,19 +8644,19 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.09320000000000001</v>
+        <v>0.2459</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>45708.67996841436</v>
+        <v>45692.86672944445</v>
       </c>
       <c r="G128" t="n">
-        <v>160.68</v>
+        <v>40.66</v>
       </c>
       <c r="H128" s="2" t="n">
-        <v>45791.64976413194</v>
+        <v>45754.64763142361</v>
       </c>
       <c r="I128" t="n">
-        <v>196.89</v>
+        <v>44.8</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -8671,14 +8665,14 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>14.98</v>
+        <v>10</v>
       </c>
       <c r="M128" t="n">
-        <v>18.35</v>
+        <v>11.02</v>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -8693,18 +8687,18 @@
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>3.37</v>
+        <v>1.02</v>
       </c>
       <c r="U128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="n">
-        <v>1701098878</v>
+        <v>1666451221</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -8713,19 +8707,19 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.0051</v>
+        <v>0.1796</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>45727.87167579861</v>
+        <v>45708.68022618056</v>
       </c>
       <c r="G129" t="n">
-        <v>139.41</v>
+        <v>43</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>45791.64976413194</v>
+        <v>45754.64763142361</v>
       </c>
       <c r="I129" t="n">
-        <v>196.89</v>
+        <v>44.8</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -8734,14 +8728,14 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>0.71</v>
+        <v>7.72</v>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -8756,59 +8750,57 @@
         <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="U129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="n">
-        <v>1701098878</v>
+        <v>1749053104</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>45727.87167579861</v>
+        <v>45754.65117414352</v>
       </c>
       <c r="G130" t="n">
-        <v>139.41</v>
+        <v>4903.7</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>45792.64655003473</v>
+        <v>45754.65218731482</v>
       </c>
       <c r="I130" t="n">
-        <v>188.02</v>
+        <v>4891.1</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="M130" t="n">
-        <v>18.8</v>
-      </c>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
+      <c r="P130" t="n">
+        <v>12.26</v>
+      </c>
       <c r="Q130" t="n">
         <v>0</v>
       </c>
@@ -8819,59 +8811,57 @@
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>4.86</v>
+        <v>6.3</v>
       </c>
       <c r="U130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="n">
-        <v>1426782063</v>
+        <v>1756767326</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.0004</v>
+        <v>0.01</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>45523.66633670139</v>
+        <v>45756.64805717592</v>
       </c>
       <c r="G131" t="n">
-        <v>419.46</v>
+        <v>5004.7</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>45792.64781748843</v>
+        <v>45756.64937413194</v>
       </c>
       <c r="I131" t="n">
-        <v>452.34</v>
+        <v>5005.2</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0.18</v>
-      </c>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
+      <c r="P131" t="n">
+        <v>12.51</v>
+      </c>
       <c r="Q131" t="n">
         <v>0</v>
       </c>
@@ -8882,59 +8872,57 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>0.01</v>
+        <v>-0.25</v>
       </c>
       <c r="U131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="n">
-        <v>1481614059</v>
+        <v>1756797155</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.0359</v>
+        <v>0.01</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>45568.77505349537</v>
+        <v>45756.6510503125</v>
       </c>
       <c r="G132" t="n">
-        <v>417.1</v>
+        <v>4992.2</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>45792.64781748843</v>
+        <v>45756.65185319445</v>
       </c>
       <c r="I132" t="n">
-        <v>452.34</v>
+        <v>5013.4</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="M132" t="n">
-        <v>16.24</v>
-      </c>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
+      <c r="P132" t="n">
+        <v>12.48</v>
+      </c>
       <c r="Q132" t="n">
         <v>0</v>
       </c>
@@ -8945,18 +8933,18 @@
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>1.27</v>
+        <v>-10.6</v>
       </c>
       <c r="U132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="n">
-        <v>1517514880</v>
+        <v>1767688540</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -8965,19 +8953,19 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.0037</v>
+        <v>0.01</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>45597.6108722338</v>
+        <v>45761.6294487037</v>
       </c>
       <c r="G133" t="n">
-        <v>409.38</v>
+        <v>20.1226</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>45792.64781748843</v>
+        <v>45761.66966099537</v>
       </c>
       <c r="I133" t="n">
-        <v>452.34</v>
+        <v>20.047</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -8989,15 +8977,17 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M133" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>20.048</v>
+      </c>
+      <c r="O133" t="n">
+        <v>20.3404</v>
+      </c>
+      <c r="P133" t="n">
+        <v>5</v>
+      </c>
       <c r="Q133" t="n">
         <v>0</v>
       </c>
@@ -9008,18 +8998,22 @@
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="U133" t="inlineStr"/>
+        <v>-3.77</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="n">
-        <v>1393281432</v>
+        <v>1768229183</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -9028,39 +9022,41 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.632</v>
+        <v>0.01</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45761.71402207176</v>
       </c>
       <c r="G134" t="n">
-        <v>5.981</v>
+        <v>20.0759</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>45496.61775418981</v>
+        <v>45761.77371288194</v>
       </c>
       <c r="I134" t="n">
-        <v>5.967</v>
+        <v>20.1099</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="M134" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>20.1099</v>
+      </c>
+      <c r="O134" t="n">
+        <v>20.2122</v>
+      </c>
+      <c r="P134" t="n">
+        <v>5</v>
+      </c>
       <c r="Q134" t="n">
         <v>0</v>
       </c>
@@ -9071,18 +9067,22 @@
         <v>0</v>
       </c>
       <c r="T134" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="U134" t="inlineStr"/>
+        <v>1.69</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="n">
-        <v>1393281260</v>
+        <v>1769815245</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -9091,39 +9091,39 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.5612</v>
+        <v>0.01</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45762.50265097222</v>
       </c>
       <c r="G135" t="n">
-        <v>5.812</v>
+        <v>20.0545</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>45496.61775451389</v>
+        <v>45762.61225923611</v>
       </c>
       <c r="I135" t="n">
-        <v>5.81</v>
+        <v>19.9735</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="M135" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>19.9742</v>
+      </c>
       <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
+      <c r="P135" t="n">
+        <v>5</v>
+      </c>
       <c r="Q135" t="n">
         <v>0</v>
       </c>
@@ -9134,18 +9134,22 @@
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
-      </c>
-      <c r="U135" t="inlineStr"/>
+        <v>-4.06</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="n">
-        <v>1393281260</v>
+        <v>1666451221</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -9154,35 +9158,35 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.555</v>
+        <v>0.0528</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45708.68022618056</v>
       </c>
       <c r="G136" t="n">
-        <v>5.812</v>
+        <v>43</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>45497.65423505787</v>
+        <v>45764.85028728009</v>
       </c>
       <c r="I136" t="n">
-        <v>5.801</v>
+        <v>47.89</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.23</v>
+        <v>2.27</v>
       </c>
       <c r="M136" t="n">
-        <v>3.22</v>
+        <v>2.53</v>
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
@@ -9197,18 +9201,18 @@
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>-0.01</v>
+        <v>0.25</v>
       </c>
       <c r="U136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="n">
-        <v>1393281432</v>
+        <v>1450043624</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -9217,35 +9221,35 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.4344</v>
+        <v>0.1</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45544.65163506944</v>
       </c>
       <c r="G137" t="n">
-        <v>5.981</v>
+        <v>147.48</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>45497.65423550926</v>
+        <v>45764.8517803588</v>
       </c>
       <c r="I137" t="n">
-        <v>5.968</v>
+        <v>143.22</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.6</v>
+        <v>14.75</v>
       </c>
       <c r="M137" t="n">
-        <v>2.59</v>
+        <v>14.32</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -9260,18 +9264,18 @@
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>-0.01</v>
+        <v>-0.42</v>
       </c>
       <c r="U137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="n">
-        <v>1393281260</v>
+        <v>1777308201</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -9280,39 +9284,37 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45768.12181488426</v>
       </c>
       <c r="G138" t="n">
-        <v>5.812</v>
+        <v>19.7053</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>45497.65424290509</v>
+        <v>45768.13306659722</v>
       </c>
       <c r="I138" t="n">
-        <v>5.814</v>
+        <v>19.7154</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="M138" t="n">
-        <v>5.81</v>
-      </c>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
+      <c r="P138" t="n">
+        <v>5</v>
+      </c>
       <c r="Q138" t="n">
         <v>0</v>
       </c>
@@ -9323,18 +9325,18 @@
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="U138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="n">
-        <v>1393281432</v>
+        <v>1781449563</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -9343,39 +9345,37 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45769.73814164352</v>
       </c>
       <c r="G139" t="n">
-        <v>5.981</v>
+        <v>19.58</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>45497.65424459491</v>
+        <v>45769.76084202546</v>
       </c>
       <c r="I139" t="n">
-        <v>5.978</v>
+        <v>19.5255</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="M139" t="n">
-        <v>5.98</v>
-      </c>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
+      <c r="P139" t="n">
+        <v>5</v>
+      </c>
       <c r="Q139" t="n">
         <v>0</v>
       </c>
@@ -9386,18 +9386,18 @@
         <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>0</v>
+        <v>-2.79</v>
       </c>
       <c r="U139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="n">
-        <v>1393281260</v>
+        <v>1560258921</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>VBTC.DE</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -9406,35 +9406,35 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.4206</v>
+        <v>1</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45629.37798611111</v>
       </c>
       <c r="G140" t="n">
-        <v>5.812</v>
+        <v>48.68</v>
       </c>
       <c r="H140" s="2" t="n">
-        <v>45504.63556305556</v>
+        <v>45782.67688657407</v>
       </c>
       <c r="I140" t="n">
-        <v>5.826</v>
+        <v>44.15</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.44</v>
+        <v>51.41</v>
       </c>
       <c r="M140" t="n">
-        <v>2.45</v>
+        <v>49.84</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
@@ -9449,18 +9449,18 @@
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>0.01</v>
+        <v>-1.57</v>
       </c>
       <c r="U140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="n">
-        <v>1393281432</v>
+        <v>1748583646</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>VBTC.DE</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -9469,35 +9469,35 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.4033</v>
+        <v>1</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45754.57938657407</v>
       </c>
       <c r="G141" t="n">
-        <v>5.981</v>
+        <v>37.258</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>45504.6355634375</v>
+        <v>45782.67688657407</v>
       </c>
       <c r="I141" t="n">
-        <v>5.98</v>
+        <v>44.15</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2.41</v>
+        <v>41.06</v>
       </c>
       <c r="M141" t="n">
-        <v>2.41</v>
+        <v>49.84</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -9512,18 +9512,18 @@
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>0</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="U141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="n">
-        <v>1393281432</v>
+        <v>1373808226</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -9532,35 +9532,35 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.4201</v>
+        <v>0.0234</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45476.6587916088</v>
       </c>
       <c r="G142" t="n">
-        <v>5.981</v>
+        <v>459.24</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>45504.64158128472</v>
+        <v>45784.77664918981</v>
       </c>
       <c r="I142" t="n">
-        <v>5.98</v>
+        <v>434.71</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>2.51</v>
+        <v>10.75</v>
       </c>
       <c r="M142" t="n">
-        <v>2.51</v>
+        <v>10.17</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -9575,18 +9575,18 @@
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>-0.58</v>
       </c>
       <c r="U142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="n">
-        <v>1393281432</v>
+        <v>1426782063</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -9595,35 +9595,35 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>0.0372</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45523.66633670139</v>
       </c>
       <c r="G143" t="n">
-        <v>5.981</v>
+        <v>419.46</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>45726.37522701389</v>
+        <v>45784.77664918981</v>
       </c>
       <c r="I143" t="n">
-        <v>6.186</v>
+        <v>434.71</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>5.98</v>
+        <v>15.6</v>
       </c>
       <c r="M143" t="n">
-        <v>6.19</v>
+        <v>16.17</v>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
@@ -9638,18 +9638,18 @@
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>0.21</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="U143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="n">
-        <v>1393281260</v>
+        <v>1426782063</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -9658,35 +9658,35 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1.4632</v>
+        <v>0.01</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45523.66633670139</v>
       </c>
       <c r="G144" t="n">
-        <v>5.812</v>
+        <v>419.46</v>
       </c>
       <c r="H144" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45785.65885817129</v>
       </c>
       <c r="I144" t="n">
-        <v>6.02</v>
+        <v>437.05</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>8.5</v>
+        <v>4.19</v>
       </c>
       <c r="M144" t="n">
-        <v>8.81</v>
+        <v>4.37</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -9701,18 +9701,18 @@
         <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>0.3</v>
+        <v>0.18</v>
       </c>
       <c r="U144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="n">
-        <v>1393287040</v>
+        <v>1744929368</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -9721,19 +9721,19 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.2503</v>
+        <v>0.0424</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>45496.37755140047</v>
+        <v>45751.7450085301</v>
       </c>
       <c r="G145" t="n">
-        <v>5.811</v>
+        <v>324.48</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45785.65909077547</v>
       </c>
       <c r="I145" t="n">
-        <v>6.02</v>
+        <v>353.02</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -9742,14 +9742,14 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.45</v>
+        <v>13.76</v>
       </c>
       <c r="M145" t="n">
-        <v>1.51</v>
+        <v>14.97</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -9764,18 +9764,18 @@
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>0.06</v>
+        <v>1.21</v>
       </c>
       <c r="U145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="n">
-        <v>1403180431</v>
+        <v>1414372592</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -9784,35 +9784,35 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.2773</v>
+        <v>0.0229</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>45504.64299350695</v>
+        <v>45511.7228721412</v>
       </c>
       <c r="G146" t="n">
-        <v>5.84</v>
+        <v>455.4</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45785.66047934028</v>
       </c>
       <c r="I146" t="n">
-        <v>6.02</v>
+        <v>568.9299999999999</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1.62</v>
+        <v>10.43</v>
       </c>
       <c r="M146" t="n">
-        <v>1.67</v>
+        <v>13.03</v>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
@@ -9827,18 +9827,18 @@
         <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>0.05</v>
+        <v>2.6</v>
       </c>
       <c r="U146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="n">
-        <v>1403180445</v>
+        <v>1582737192</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -9847,35 +9847,35 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.0092</v>
+        <v>0.0371</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>45504.64300175926</v>
+        <v>45645.90143914352</v>
       </c>
       <c r="G147" t="n">
-        <v>5.836</v>
+        <v>524.4299999999999</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45785.66047934028</v>
       </c>
       <c r="I147" t="n">
-        <v>6.02</v>
+        <v>568.9299999999999</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile Android</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>0.05</v>
+        <v>19.46</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06</v>
+        <v>21.11</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -9890,18 +9890,18 @@
         <v>0</v>
       </c>
       <c r="T147" t="n">
-        <v>0.01</v>
+        <v>1.65</v>
       </c>
       <c r="U147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="n">
-        <v>1393735509</v>
+        <v>1599454287</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -9910,35 +9910,35 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.0366</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>45496.61777673611</v>
+        <v>45663.73715268519</v>
       </c>
       <c r="G148" t="n">
-        <v>67.37</v>
+        <v>196.49</v>
       </c>
       <c r="H148" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45791.64976413194</v>
       </c>
       <c r="I148" t="n">
-        <v>71.16</v>
+        <v>196.89</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.47</v>
+        <v>14.99</v>
       </c>
       <c r="M148" t="n">
-        <v>2.6</v>
+        <v>15.02</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -9953,18 +9953,18 @@
         <v>0</v>
       </c>
       <c r="T148" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="U148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="n">
-        <v>1395218355</v>
+        <v>1621495599</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -9973,35 +9973,35 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.074</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>45497.65423574074</v>
+        <v>45678.83206015046</v>
       </c>
       <c r="G149" t="n">
-        <v>67.13</v>
+        <v>183.39</v>
       </c>
       <c r="H149" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45791.64976413194</v>
       </c>
       <c r="I149" t="n">
-        <v>71.16</v>
+        <v>196.89</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>4.97</v>
+        <v>14.98</v>
       </c>
       <c r="M149" t="n">
-        <v>5.27</v>
+        <v>16.09</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -10016,18 +10016,18 @@
         <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>0.3</v>
+        <v>1.11</v>
       </c>
       <c r="U149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="n">
-        <v>1403166009</v>
+        <v>1631467534</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -10036,35 +10036,35 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.0362</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>45504.63556387732</v>
+        <v>45685.83235356482</v>
       </c>
       <c r="G150" t="n">
-        <v>68.05</v>
+        <v>159.74</v>
       </c>
       <c r="H150" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45791.64976413194</v>
       </c>
       <c r="I150" t="n">
-        <v>71.16</v>
+        <v>196.89</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.46</v>
+        <v>14.97</v>
       </c>
       <c r="M150" t="n">
-        <v>2.58</v>
+        <v>18.45</v>
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
@@ -10079,18 +10079,18 @@
         <v>0</v>
       </c>
       <c r="T150" t="n">
-        <v>0.12</v>
+        <v>3.48</v>
       </c>
       <c r="U150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="n">
-        <v>1403177543</v>
+        <v>1666449688</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -10099,35 +10099,35 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.0368</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>45504.64158137731</v>
+        <v>45708.67996841436</v>
       </c>
       <c r="G151" t="n">
-        <v>68.045</v>
+        <v>160.68</v>
       </c>
       <c r="H151" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45791.64976413194</v>
       </c>
       <c r="I151" t="n">
-        <v>71.16</v>
+        <v>196.89</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>2.5</v>
+        <v>14.98</v>
       </c>
       <c r="M151" t="n">
-        <v>2.62</v>
+        <v>18.35</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -10142,18 +10142,18 @@
         <v>0</v>
       </c>
       <c r="T151" t="n">
-        <v>0.12</v>
+        <v>3.37</v>
       </c>
       <c r="U151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="n">
-        <v>1403180429</v>
+        <v>1701098878</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -10162,35 +10162,35 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.0733</v>
+        <v>0.0051</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>45504.6429933912</v>
+        <v>45727.87167579861</v>
       </c>
       <c r="G152" t="n">
-        <v>68.01000000000001</v>
+        <v>139.41</v>
       </c>
       <c r="H152" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45791.64976413194</v>
       </c>
       <c r="I152" t="n">
-        <v>71.16</v>
+        <v>196.89</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>4.99</v>
+        <v>0.71</v>
       </c>
       <c r="M152" t="n">
-        <v>5.22</v>
+        <v>1</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -10205,18 +10205,18 @@
         <v>0</v>
       </c>
       <c r="T152" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="U152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="n">
-        <v>1403180445</v>
+        <v>1701098878</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -10225,35 +10225,35 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.9908</v>
+        <v>0.1</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>45504.64300175926</v>
+        <v>45727.87167579861</v>
       </c>
       <c r="G153" t="n">
-        <v>5.836</v>
+        <v>139.41</v>
       </c>
       <c r="H153" s="2" t="n">
-        <v>45726.43231427083</v>
+        <v>45792.64655003473</v>
       </c>
       <c r="I153" t="n">
-        <v>6.027</v>
+        <v>188.02</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>5.78</v>
+        <v>13.94</v>
       </c>
       <c r="M153" t="n">
-        <v>5.97</v>
+        <v>18.8</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -10268,18 +10268,18 @@
         <v>0</v>
       </c>
       <c r="T153" t="n">
-        <v>0.18</v>
+        <v>4.86</v>
       </c>
       <c r="U153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="n">
-        <v>1393281432</v>
+        <v>1426782063</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -10288,35 +10288,35 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.1102</v>
+        <v>0.0004</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45523.66633670139</v>
       </c>
       <c r="G154" t="n">
-        <v>5.981</v>
+        <v>419.46</v>
       </c>
       <c r="H154" s="2" t="n">
-        <v>45727.38638285879</v>
+        <v>45792.64781748843</v>
       </c>
       <c r="I154" t="n">
-        <v>6.176</v>
+        <v>452.34</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>0.66</v>
+        <v>0.17</v>
       </c>
       <c r="M154" t="n">
-        <v>0.68</v>
+        <v>0.18</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -10331,18 +10331,18 @@
         <v>0</v>
       </c>
       <c r="T154" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="U154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="n">
-        <v>1393301698</v>
+        <v>1481614059</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -10351,35 +10351,35 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.1401</v>
+        <v>0.0359</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>45496.37886077546</v>
+        <v>45568.77505349537</v>
       </c>
       <c r="G155" t="n">
-        <v>5.99</v>
+        <v>417.1</v>
       </c>
       <c r="H155" s="2" t="n">
-        <v>45727.38638285879</v>
+        <v>45792.64781748843</v>
       </c>
       <c r="I155" t="n">
-        <v>6.176</v>
+        <v>452.34</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>0.84</v>
+        <v>14.97</v>
       </c>
       <c r="M155" t="n">
-        <v>0.87</v>
+        <v>16.24</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -10394,18 +10394,18 @@
         <v>0</v>
       </c>
       <c r="T155" t="n">
-        <v>0.03</v>
+        <v>1.27</v>
       </c>
       <c r="U155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="n">
-        <v>1403180427</v>
+        <v>1517514880</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -10414,35 +10414,35 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.4203</v>
+        <v>0.0037</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>45504.64299328704</v>
+        <v>45597.6108722338</v>
       </c>
       <c r="G156" t="n">
-        <v>5.989</v>
+        <v>409.38</v>
       </c>
       <c r="H156" s="2" t="n">
-        <v>45727.38638285879</v>
+        <v>45792.64781748843</v>
       </c>
       <c r="I156" t="n">
-        <v>6.176</v>
+        <v>452.34</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.52</v>
+        <v>1.51</v>
       </c>
       <c r="M156" t="n">
-        <v>2.6</v>
+        <v>1.67</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="T156" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="U156" t="inlineStr"/>
     </row>

--- a/Stock Selection/CLOSED POSITION HISTORY.xlsx
+++ b/Stock Selection/CLOSED POSITION HISTORY.xlsx
@@ -6156,11 +6156,11 @@
     <row r="89">
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="n">
-        <v>1393281432</v>
+        <v>1495548850</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -6169,35 +6169,35 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.632</v>
+        <v>0.1047</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45580.70599549769</v>
       </c>
       <c r="G89" t="n">
-        <v>5.981</v>
+        <v>133.61</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>45496.61775418981</v>
+        <v>45695.85266428241</v>
       </c>
       <c r="I89" t="n">
-        <v>5.967</v>
+        <v>143.18</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.78</v>
+        <v>13.99</v>
       </c>
       <c r="M89" t="n">
-        <v>3.77</v>
+        <v>14.99</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6212,14 +6212,14 @@
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>-0.01</v>
+        <v>1</v>
       </c>
       <c r="U89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="n">
-        <v>1495548850</v>
+        <v>1517512112</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -6232,13 +6232,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.1047</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>45580.70599549769</v>
+        <v>45597.61040866898</v>
       </c>
       <c r="G90" t="n">
-        <v>133.61</v>
+        <v>132.62</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>45695.85266428241</v>
@@ -6257,10 +6257,10 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>13.99</v>
+        <v>10</v>
       </c>
       <c r="M90" t="n">
-        <v>14.99</v>
+        <v>10.8</v>
       </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
@@ -6275,18 +6275,18 @@
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="n">
-        <v>1393281260</v>
+        <v>1582735114</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6295,35 +6295,35 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.5612</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45645.90076787037</v>
       </c>
       <c r="G91" t="n">
-        <v>5.812</v>
+        <v>130.51</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>45496.61775451389</v>
+        <v>45695.85266428241</v>
       </c>
       <c r="I91" t="n">
-        <v>5.81</v>
+        <v>143.18</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile Android</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.26</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="M91" t="n">
-        <v>3.26</v>
+        <v>10.92</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -6338,18 +6338,18 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="U91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="n">
-        <v>1517512112</v>
+        <v>1657658561</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>45597.61040866898</v>
+        <v>45702.18774210648</v>
       </c>
       <c r="G92" t="n">
-        <v>132.62</v>
+        <v>20.4257</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>45695.85266428241</v>
+        <v>45702.56168643518</v>
       </c>
       <c r="I92" t="n">
-        <v>143.18</v>
+        <v>20.3656</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -6382,15 +6382,17 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
+        <v>20.3664</v>
+      </c>
+      <c r="O92" t="n">
+        <v>20.5213</v>
+      </c>
+      <c r="P92" t="n">
         <v>10</v>
       </c>
-      <c r="M92" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
       <c r="Q92" t="n">
         <v>0</v>
       </c>
@@ -6401,18 +6403,22 @@
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="U92" t="inlineStr"/>
+        <v>-5.9</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="n">
-        <v>1393281260</v>
+        <v>1660829104</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -6421,39 +6427,41 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.555</v>
+        <v>0.02</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45705.64981799768</v>
       </c>
       <c r="G93" t="n">
-        <v>5.812</v>
+        <v>20.3237</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>45497.65423505787</v>
+        <v>45705.72866341435</v>
       </c>
       <c r="I93" t="n">
-        <v>5.801</v>
+        <v>20.2738</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="M93" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
+        <v>20.2738</v>
+      </c>
+      <c r="O93" t="n">
+        <v>20.3936</v>
+      </c>
+      <c r="P93" t="n">
+        <v>10</v>
+      </c>
       <c r="Q93" t="n">
         <v>0</v>
       </c>
@@ -6464,18 +6472,22 @@
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="U93" t="inlineStr"/>
+        <v>-4.92</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="n">
-        <v>1393281432</v>
+        <v>1378903852</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6484,35 +6496,35 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.4344</v>
+        <v>0.0616</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45482.71372086806</v>
       </c>
       <c r="G94" t="n">
-        <v>5.981</v>
+        <v>227.77</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>45497.65423550926</v>
+        <v>45706.65274813658</v>
       </c>
       <c r="I94" t="n">
-        <v>5.968</v>
+        <v>243.58</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.6</v>
+        <v>14.03</v>
       </c>
       <c r="M94" t="n">
-        <v>2.59</v>
+        <v>15</v>
       </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
@@ -6527,18 +6539,18 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>-0.01</v>
+        <v>0.97</v>
       </c>
       <c r="U94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="n">
-        <v>1582735114</v>
+        <v>1378903852</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6547,23 +6559,23 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.0042</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>45645.90076787037</v>
+        <v>45482.71372086806</v>
       </c>
       <c r="G95" t="n">
-        <v>130.51</v>
+        <v>227.77</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>45695.85266428241</v>
+        <v>45706.65290153935</v>
       </c>
       <c r="I95" t="n">
-        <v>143.18</v>
+        <v>243.45</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>xStation Mobile Android</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6572,10 +6584,10 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>9.960000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="M95" t="n">
-        <v>10.92</v>
+        <v>1.02</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -6590,18 +6602,18 @@
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>0.96</v>
+        <v>0.06</v>
       </c>
       <c r="U95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="n">
-        <v>1393281260</v>
+        <v>1456814919</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6610,35 +6622,35 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0.0665</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45548.6657375</v>
       </c>
       <c r="G96" t="n">
-        <v>5.812</v>
+        <v>222.94</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>45497.65424290509</v>
+        <v>45706.65290153935</v>
       </c>
       <c r="I96" t="n">
-        <v>5.814</v>
+        <v>243.45</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>5.81</v>
+        <v>14.83</v>
       </c>
       <c r="M96" t="n">
-        <v>5.81</v>
+        <v>16.19</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -6653,18 +6665,18 @@
         <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="n">
-        <v>1657658561</v>
+        <v>1499061783</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6673,23 +6685,23 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.02</v>
+        <v>0.0558</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>45702.18774210648</v>
+        <v>45582.73996877314</v>
       </c>
       <c r="G97" t="n">
-        <v>20.4257</v>
+        <v>232.2</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>45702.56168643518</v>
+        <v>45706.65290153935</v>
       </c>
       <c r="I97" t="n">
-        <v>20.3656</v>
+        <v>243.45</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6697,17 +6709,15 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
-        <v>20.3664</v>
-      </c>
-      <c r="O97" t="n">
-        <v>20.5213</v>
-      </c>
-      <c r="P97" t="n">
-        <v>10</v>
-      </c>
+      <c r="L97" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="M97" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
       <c r="Q97" t="n">
         <v>0</v>
       </c>
@@ -6718,22 +6728,18 @@
         <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>-5.9</v>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>0.62</v>
+      </c>
+      <c r="U97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="n">
-        <v>1393281432</v>
+        <v>1717095547</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6742,61 +6748,67 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0.04</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45736.81342114583</v>
       </c>
       <c r="G98" t="n">
-        <v>5.981</v>
+        <v>20.1198</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>45497.65424459491</v>
+        <v>45737.11337774306</v>
       </c>
       <c r="I98" t="n">
-        <v>5.978</v>
+        <v>20.1348</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="M98" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>20.1349</v>
+      </c>
+      <c r="O98" t="n">
+        <v>20.1623</v>
+      </c>
+      <c r="P98" t="n">
+        <v>20</v>
+      </c>
       <c r="Q98" t="n">
         <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
-      </c>
-      <c r="U98" t="inlineStr"/>
+        <v>2.98</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="n">
-        <v>1393281260</v>
+        <v>1554741910</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>ING</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6805,35 +6817,35 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.4206</v>
+        <v>0.61</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45623.74951100694</v>
       </c>
       <c r="G99" t="n">
-        <v>5.812</v>
+        <v>15.3</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>45504.63556305556</v>
+        <v>45741.87177293981</v>
       </c>
       <c r="I99" t="n">
-        <v>5.826</v>
+        <v>20.29</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.44</v>
+        <v>9.33</v>
       </c>
       <c r="M99" t="n">
-        <v>2.45</v>
+        <v>12.38</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -6848,18 +6860,18 @@
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>0.01</v>
+        <v>3.05</v>
       </c>
       <c r="U99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="n">
-        <v>1393281432</v>
+        <v>1414372592</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6868,35 +6880,35 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.4033</v>
+        <v>0.01</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45511.7228721412</v>
       </c>
       <c r="G100" t="n">
-        <v>5.981</v>
+        <v>455.4</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>45504.6355634375</v>
+        <v>45742.77596394676</v>
       </c>
       <c r="I100" t="n">
-        <v>5.98</v>
+        <v>547.14</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.41</v>
+        <v>4.55</v>
       </c>
       <c r="M100" t="n">
-        <v>2.41</v>
+        <v>5.47</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -6911,18 +6923,18 @@
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="U100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="n">
-        <v>1660829104</v>
+        <v>1450043624</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6931,19 +6943,19 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.02</v>
+        <v>0.0138</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>45705.64981799768</v>
+        <v>45544.65163506944</v>
       </c>
       <c r="G101" t="n">
-        <v>20.3237</v>
+        <v>147.48</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>45705.72866341435</v>
+        <v>45743.76599777778</v>
       </c>
       <c r="I101" t="n">
-        <v>20.2738</v>
+        <v>139.86</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -6955,17 +6967,15 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
-        <v>20.2738</v>
-      </c>
-      <c r="O101" t="n">
-        <v>20.3936</v>
-      </c>
-      <c r="P101" t="n">
-        <v>10</v>
-      </c>
+      <c r="L101" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="n">
         <v>0</v>
       </c>
@@ -6976,22 +6986,18 @@
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>-0.11</v>
+      </c>
+      <c r="U101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="n">
-        <v>1393281432</v>
+        <v>1358151307</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -7000,35 +7006,35 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.4201</v>
+        <v>0.0124</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45460.88529037037</v>
       </c>
       <c r="G102" t="n">
-        <v>5.981</v>
+        <v>165.93</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>45504.64158128472</v>
+        <v>45743.76632650463</v>
       </c>
       <c r="I102" t="n">
-        <v>5.98</v>
+        <v>149.33</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.51</v>
+        <v>2.06</v>
       </c>
       <c r="M102" t="n">
-        <v>2.51</v>
+        <v>1.85</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -7043,18 +7049,18 @@
         <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="U102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="n">
-        <v>1378903852</v>
+        <v>1422773288</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -7063,19 +7069,19 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.0616</v>
+        <v>0.2</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>45482.71372086806</v>
+        <v>45518.84428505787</v>
       </c>
       <c r="G103" t="n">
-        <v>227.77</v>
+        <v>51.24</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>45706.65274813658</v>
+        <v>45743.76769060185</v>
       </c>
       <c r="I103" t="n">
-        <v>243.58</v>
+        <v>58.08</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -7088,10 +7094,10 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>14.03</v>
+        <v>10.25</v>
       </c>
       <c r="M103" t="n">
-        <v>15</v>
+        <v>11.62</v>
       </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
@@ -7106,18 +7112,18 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>0.97</v>
+        <v>1.37</v>
       </c>
       <c r="U103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="n">
-        <v>1393281432</v>
+        <v>1631473921</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -7126,35 +7132,35 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>0.2745</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45685.8356116088</v>
       </c>
       <c r="G104" t="n">
-        <v>5.981</v>
+        <v>40.05</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>45726.37522701389</v>
+        <v>45754.64763142361</v>
       </c>
       <c r="I104" t="n">
-        <v>6.186</v>
+        <v>44.8</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
           <t>xStation 5</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
       <c r="L104" t="n">
-        <v>5.98</v>
+        <v>10.99</v>
       </c>
       <c r="M104" t="n">
-        <v>6.19</v>
+        <v>12.3</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -7169,18 +7175,18 @@
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>0.21</v>
+        <v>1.31</v>
       </c>
       <c r="U104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="n">
-        <v>1393281260</v>
+        <v>1642763333</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -7189,35 +7195,35 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1.4632</v>
+        <v>0.2459</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>45496.37564016203</v>
+        <v>45692.86672944445</v>
       </c>
       <c r="G105" t="n">
-        <v>5.812</v>
+        <v>40.66</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45754.64763142361</v>
       </c>
       <c r="I105" t="n">
-        <v>6.02</v>
+        <v>44.8</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
           <t>xStation 5</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
       <c r="L105" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="M105" t="n">
-        <v>8.81</v>
+        <v>11.02</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -7232,18 +7238,18 @@
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>0.3</v>
+        <v>1.02</v>
       </c>
       <c r="U105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="n">
-        <v>1393287040</v>
+        <v>1666451221</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -7252,35 +7258,35 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.2503</v>
+        <v>0.1796</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>45496.37755140047</v>
+        <v>45708.68022618056</v>
       </c>
       <c r="G106" t="n">
-        <v>5.811</v>
+        <v>43</v>
       </c>
       <c r="H106" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45754.64763142361</v>
       </c>
       <c r="I106" t="n">
-        <v>6.02</v>
+        <v>44.8</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
           <t>xStation 5</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
       <c r="L106" t="n">
-        <v>1.45</v>
+        <v>7.72</v>
       </c>
       <c r="M106" t="n">
-        <v>1.51</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
@@ -7295,39 +7301,39 @@
         <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="U106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="n">
-        <v>1403180431</v>
+        <v>1749053104</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.2773</v>
+        <v>0.01</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>45504.64299350695</v>
+        <v>45754.65117414352</v>
       </c>
       <c r="G107" t="n">
-        <v>5.84</v>
+        <v>4903.7</v>
       </c>
       <c r="H107" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45754.65218731482</v>
       </c>
       <c r="I107" t="n">
-        <v>6.02</v>
+        <v>4891.1</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -7339,15 +7345,13 @@
           <t>xStation 5</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M107" t="n">
-        <v>1.67</v>
-      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
+      <c r="P107" t="n">
+        <v>12.26</v>
+      </c>
       <c r="Q107" t="n">
         <v>0</v>
       </c>
@@ -7358,39 +7362,39 @@
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>0.05</v>
+        <v>6.3</v>
       </c>
       <c r="U107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="n">
-        <v>1403180445</v>
+        <v>1756767326</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.0092</v>
+        <v>0.01</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>45504.64300175926</v>
+        <v>45756.64805717592</v>
       </c>
       <c r="G108" t="n">
-        <v>5.836</v>
+        <v>5004.7</v>
       </c>
       <c r="H108" s="2" t="n">
-        <v>45726.37526289352</v>
+        <v>45756.64937413194</v>
       </c>
       <c r="I108" t="n">
-        <v>6.02</v>
+        <v>5005.2</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -7402,15 +7406,13 @@
           <t>xStation 5</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.06</v>
-      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
+      <c r="P108" t="n">
+        <v>12.51</v>
+      </c>
       <c r="Q108" t="n">
         <v>0</v>
       </c>
@@ -7421,59 +7423,57 @@
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>0.01</v>
+        <v>-0.25</v>
       </c>
       <c r="U108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="n">
-        <v>1378903852</v>
+        <v>1756797155</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.0042</v>
+        <v>0.01</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>45482.71372086806</v>
+        <v>45756.6510503125</v>
       </c>
       <c r="G109" t="n">
-        <v>227.77</v>
+        <v>4992.2</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>45706.65290153935</v>
+        <v>45756.65185319445</v>
       </c>
       <c r="I109" t="n">
-        <v>243.45</v>
+        <v>5013.4</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="M109" t="n">
-        <v>1.02</v>
-      </c>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
+      <c r="P109" t="n">
+        <v>12.48</v>
+      </c>
       <c r="Q109" t="n">
         <v>0</v>
       </c>
@@ -7484,18 +7484,18 @@
         <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>0.06</v>
+        <v>-10.6</v>
       </c>
       <c r="U109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="n">
-        <v>1393735509</v>
+        <v>1767688540</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -7504,39 +7504,41 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.0366</v>
+        <v>0.01</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>45496.61777673611</v>
+        <v>45761.6294487037</v>
       </c>
       <c r="G110" t="n">
-        <v>67.37</v>
+        <v>20.1226</v>
       </c>
       <c r="H110" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45761.66966099537</v>
       </c>
       <c r="I110" t="n">
-        <v>71.16</v>
+        <v>20.047</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="M110" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>20.048</v>
+      </c>
+      <c r="O110" t="n">
+        <v>20.3404</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
       <c r="Q110" t="n">
         <v>0</v>
       </c>
@@ -7547,18 +7549,22 @@
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="U110" t="inlineStr"/>
+        <v>-3.77</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="n">
-        <v>1456814919</v>
+        <v>1768229183</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -7567,19 +7573,19 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.0665</v>
+        <v>0.01</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>45548.6657375</v>
+        <v>45761.71402207176</v>
       </c>
       <c r="G111" t="n">
-        <v>222.94</v>
+        <v>20.0759</v>
       </c>
       <c r="H111" s="2" t="n">
-        <v>45706.65290153935</v>
+        <v>45761.77371288194</v>
       </c>
       <c r="I111" t="n">
-        <v>243.45</v>
+        <v>20.1099</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -7591,15 +7597,17 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="M111" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>20.1099</v>
+      </c>
+      <c r="O111" t="n">
+        <v>20.2122</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
       <c r="Q111" t="n">
         <v>0</v>
       </c>
@@ -7610,18 +7618,22 @@
         <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U111" t="inlineStr"/>
+        <v>1.69</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="n">
-        <v>1395218355</v>
+        <v>1769815245</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -7630,39 +7642,39 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.074</v>
+        <v>0.01</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>45497.65423574074</v>
+        <v>45762.50265097222</v>
       </c>
       <c r="G112" t="n">
-        <v>67.13</v>
+        <v>20.0545</v>
       </c>
       <c r="H112" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45762.61225923611</v>
       </c>
       <c r="I112" t="n">
-        <v>71.16</v>
+        <v>19.9735</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="M112" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>19.9742</v>
+      </c>
       <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
       <c r="Q112" t="n">
         <v>0</v>
       </c>
@@ -7673,18 +7685,22 @@
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="U112" t="inlineStr"/>
+        <v>-4.06</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>[S/L]</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="n">
-        <v>1403166009</v>
+        <v>1666451221</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -7693,35 +7709,35 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.0362</v>
+        <v>0.0528</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>45504.63556387732</v>
+        <v>45708.68022618056</v>
       </c>
       <c r="G113" t="n">
-        <v>68.05</v>
+        <v>43</v>
       </c>
       <c r="H113" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45764.85028728009</v>
       </c>
       <c r="I113" t="n">
-        <v>71.16</v>
+        <v>47.89</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.46</v>
+        <v>2.27</v>
       </c>
       <c r="M113" t="n">
-        <v>2.58</v>
+        <v>2.53</v>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -7736,18 +7752,18 @@
         <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="U113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="n">
-        <v>1403177543</v>
+        <v>1450043624</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>KMB</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -7756,35 +7772,35 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.0368</v>
+        <v>0.1</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>45504.64158137731</v>
+        <v>45544.65163506944</v>
       </c>
       <c r="G114" t="n">
-        <v>68.045</v>
+        <v>147.48</v>
       </c>
       <c r="H114" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45764.8517803588</v>
       </c>
       <c r="I114" t="n">
-        <v>71.16</v>
+        <v>143.22</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.5</v>
+        <v>14.75</v>
       </c>
       <c r="M114" t="n">
-        <v>2.62</v>
+        <v>14.32</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -7799,18 +7815,18 @@
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>0.12</v>
+        <v>-0.42</v>
       </c>
       <c r="U114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="n">
-        <v>1403180429</v>
+        <v>1777308201</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>VHYD.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -7819,39 +7835,37 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.0733</v>
+        <v>0.01</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>45504.6429933912</v>
+        <v>45768.12181488426</v>
       </c>
       <c r="G115" t="n">
-        <v>68.01000000000001</v>
+        <v>19.7053</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>45726.37603653935</v>
+        <v>45768.13306659722</v>
       </c>
       <c r="I115" t="n">
-        <v>71.16</v>
+        <v>19.7154</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="M115" t="n">
-        <v>5.22</v>
-      </c>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
       <c r="Q115" t="n">
         <v>0</v>
       </c>
@@ -7862,18 +7876,18 @@
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>0.23</v>
+        <v>0.51</v>
       </c>
       <c r="U115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="n">
-        <v>1403180445</v>
+        <v>1781449563</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SDIA.L</t>
+          <t>MXN=X</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -7882,39 +7896,37 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.9908</v>
+        <v>0.01</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>45504.64300175926</v>
+        <v>45769.73814164352</v>
       </c>
       <c r="G116" t="n">
-        <v>5.836</v>
+        <v>19.58</v>
       </c>
       <c r="H116" s="2" t="n">
-        <v>45726.43231427083</v>
+        <v>45769.76084202546</v>
       </c>
       <c r="I116" t="n">
-        <v>6.027</v>
+        <v>19.5255</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="M116" t="n">
-        <v>5.97</v>
-      </c>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
       <c r="Q116" t="n">
         <v>0</v>
       </c>
@@ -7925,18 +7937,18 @@
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>0.18</v>
+        <v>-2.79</v>
       </c>
       <c r="U116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="n">
-        <v>1499061783</v>
+        <v>1560258921</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>VBTC.DE</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -7945,23 +7957,23 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.0558</v>
+        <v>1</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>45582.73996877314</v>
+        <v>45629.37798611111</v>
       </c>
       <c r="G117" t="n">
-        <v>232.2</v>
+        <v>48.68</v>
       </c>
       <c r="H117" s="2" t="n">
-        <v>45706.65290153935</v>
+        <v>45782.67688657407</v>
       </c>
       <c r="I117" t="n">
-        <v>243.45</v>
+        <v>44.15</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7970,10 +7982,10 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>12.96</v>
+        <v>51.41</v>
       </c>
       <c r="M117" t="n">
-        <v>13.58</v>
+        <v>49.84</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -7988,18 +8000,18 @@
         <v>0</v>
       </c>
       <c r="T117" t="n">
-        <v>0.62</v>
+        <v>-1.57</v>
       </c>
       <c r="U117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="n">
-        <v>1717095547</v>
+        <v>1748583646</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>VBTC.DE</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -8008,19 +8020,19 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>45736.81342114583</v>
+        <v>45754.57938657407</v>
       </c>
       <c r="G118" t="n">
-        <v>20.1198</v>
+        <v>37.258</v>
       </c>
       <c r="H118" s="2" t="n">
-        <v>45737.11337774306</v>
+        <v>45782.67688657407</v>
       </c>
       <c r="I118" t="n">
-        <v>20.1348</v>
+        <v>44.15</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -8032,43 +8044,37 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
-        <v>20.1349</v>
-      </c>
-      <c r="O118" t="n">
-        <v>20.1623</v>
-      </c>
-      <c r="P118" t="n">
-        <v>20</v>
-      </c>
+      <c r="L118" t="n">
+        <v>41.06</v>
+      </c>
+      <c r="M118" t="n">
+        <v>49.84</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
       <c r="Q118" t="n">
         <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>8.779999999999999</v>
+      </c>
+      <c r="U118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="n">
-        <v>1393281432</v>
+        <v>1373808226</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -8077,35 +8083,35 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.1102</v>
+        <v>0.0234</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>45496.37566553241</v>
+        <v>45476.6587916088</v>
       </c>
       <c r="G119" t="n">
-        <v>5.981</v>
+        <v>459.24</v>
       </c>
       <c r="H119" s="2" t="n">
-        <v>45727.38638285879</v>
+        <v>45784.77664918981</v>
       </c>
       <c r="I119" t="n">
-        <v>6.176</v>
+        <v>434.71</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>0.66</v>
+        <v>10.75</v>
       </c>
       <c r="M119" t="n">
-        <v>0.68</v>
+        <v>10.17</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -8120,18 +8126,18 @@
         <v>0</v>
       </c>
       <c r="T119" t="n">
-        <v>0.02</v>
+        <v>-0.58</v>
       </c>
       <c r="U119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="n">
-        <v>1393301698</v>
+        <v>1426782063</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -8140,35 +8146,35 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.1401</v>
+        <v>0.0372</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>45496.37886077546</v>
+        <v>45523.66633670139</v>
       </c>
       <c r="G120" t="n">
-        <v>5.99</v>
+        <v>419.46</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>45727.38638285879</v>
+        <v>45784.77664918981</v>
       </c>
       <c r="I120" t="n">
-        <v>6.176</v>
+        <v>434.71</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>0.84</v>
+        <v>15.6</v>
       </c>
       <c r="M120" t="n">
-        <v>0.87</v>
+        <v>16.17</v>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -8183,18 +8189,18 @@
         <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>0.03</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="U120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="n">
-        <v>1403180427</v>
+        <v>1426782063</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>FLOA.L</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8203,35 +8209,35 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.4203</v>
+        <v>0.01</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>45504.64299328704</v>
+        <v>45523.66633670139</v>
       </c>
       <c r="G121" t="n">
-        <v>5.989</v>
+        <v>419.46</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>45727.38638285879</v>
+        <v>45785.65885817129</v>
       </c>
       <c r="I121" t="n">
-        <v>6.176</v>
+        <v>437.05</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>2.52</v>
+        <v>4.19</v>
       </c>
       <c r="M121" t="n">
-        <v>2.6</v>
+        <v>4.37</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -8246,18 +8252,18 @@
         <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="U121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="n">
-        <v>1554741910</v>
+        <v>1744929368</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ING</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -8266,23 +8272,23 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.61</v>
+        <v>0.0424</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>45623.74951100694</v>
+        <v>45751.7450085301</v>
       </c>
       <c r="G122" t="n">
-        <v>15.3</v>
+        <v>324.48</v>
       </c>
       <c r="H122" s="2" t="n">
-        <v>45741.87177293981</v>
+        <v>45785.65909077547</v>
       </c>
       <c r="I122" t="n">
-        <v>20.29</v>
+        <v>353.02</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -8291,10 +8297,10 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>9.33</v>
+        <v>13.76</v>
       </c>
       <c r="M122" t="n">
-        <v>12.38</v>
+        <v>14.97</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -8309,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="T122" t="n">
-        <v>3.05</v>
+        <v>1.21</v>
       </c>
       <c r="U122" t="inlineStr"/>
     </row>
@@ -8329,7 +8335,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.01</v>
+        <v>0.0229</v>
       </c>
       <c r="F123" s="2" t="n">
         <v>45511.7228721412</v>
@@ -8338,10 +8344,10 @@
         <v>455.4</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>45742.77596394676</v>
+        <v>45785.66047934028</v>
       </c>
       <c r="I123" t="n">
-        <v>547.14</v>
+        <v>568.9299999999999</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -8354,10 +8360,10 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>4.55</v>
+        <v>10.43</v>
       </c>
       <c r="M123" t="n">
-        <v>5.47</v>
+        <v>13.03</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -8372,18 +8378,18 @@
         <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>0.92</v>
+        <v>2.6</v>
       </c>
       <c r="U123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="n">
-        <v>1450043624</v>
+        <v>1582737192</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -8392,23 +8398,23 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.0138</v>
+        <v>0.0371</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>45544.65163506944</v>
+        <v>45645.90143914352</v>
       </c>
       <c r="G124" t="n">
-        <v>147.48</v>
+        <v>524.4299999999999</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>45743.76599777778</v>
+        <v>45785.66047934028</v>
       </c>
       <c r="I124" t="n">
-        <v>139.86</v>
+        <v>568.9299999999999</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation Mobile Android</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -8417,10 +8423,10 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.04</v>
+        <v>19.46</v>
       </c>
       <c r="M124" t="n">
-        <v>1.93</v>
+        <v>21.11</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -8435,18 +8441,18 @@
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>-0.11</v>
+        <v>1.65</v>
       </c>
       <c r="U124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="n">
-        <v>1358151307</v>
+        <v>1599454287</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -8455,19 +8461,19 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.0124</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>45460.88529037037</v>
+        <v>45663.73715268519</v>
       </c>
       <c r="G125" t="n">
-        <v>165.93</v>
+        <v>196.49</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>45743.76632650463</v>
+        <v>45791.64976413194</v>
       </c>
       <c r="I125" t="n">
-        <v>149.33</v>
+        <v>196.89</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -8480,10 +8486,10 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.06</v>
+        <v>14.99</v>
       </c>
       <c r="M125" t="n">
-        <v>1.85</v>
+        <v>15.02</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -8498,18 +8504,18 @@
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>-0.21</v>
+        <v>0.03</v>
       </c>
       <c r="U125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="n">
-        <v>1422773288</v>
+        <v>1621495599</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -8518,19 +8524,19 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.2</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>45518.84428505787</v>
+        <v>45678.83206015046</v>
       </c>
       <c r="G126" t="n">
-        <v>51.24</v>
+        <v>183.39</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>45743.76769060185</v>
+        <v>45791.64976413194</v>
       </c>
       <c r="I126" t="n">
-        <v>58.08</v>
+        <v>196.89</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -8543,10 +8549,10 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>10.25</v>
+        <v>14.98</v>
       </c>
       <c r="M126" t="n">
-        <v>11.62</v>
+        <v>16.09</v>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
@@ -8561,18 +8567,18 @@
         <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="U126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="n">
-        <v>1631473921</v>
+        <v>1631467534</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -8581,19 +8587,19 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.2745</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>45685.8356116088</v>
+        <v>45685.83235356482</v>
       </c>
       <c r="G127" t="n">
-        <v>40.05</v>
+        <v>159.74</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>45754.64763142361</v>
+        <v>45791.64976413194</v>
       </c>
       <c r="I127" t="n">
-        <v>44.8</v>
+        <v>196.89</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -8602,14 +8608,14 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L127" t="n">
-        <v>10.99</v>
+        <v>14.97</v>
       </c>
       <c r="M127" t="n">
-        <v>12.3</v>
+        <v>18.45</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -8624,18 +8630,18 @@
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>1.31</v>
+        <v>3.48</v>
       </c>
       <c r="U127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="n">
-        <v>1642763333</v>
+        <v>1666449688</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -8644,19 +8650,19 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.2459</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>45692.86672944445</v>
+        <v>45708.67996841436</v>
       </c>
       <c r="G128" t="n">
-        <v>40.66</v>
+        <v>160.68</v>
       </c>
       <c r="H128" s="2" t="n">
-        <v>45754.64763142361</v>
+        <v>45791.64976413194</v>
       </c>
       <c r="I128" t="n">
-        <v>44.8</v>
+        <v>196.89</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -8665,14 +8671,14 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>10</v>
+        <v>14.98</v>
       </c>
       <c r="M128" t="n">
-        <v>11.02</v>
+        <v>18.35</v>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -8687,18 +8693,18 @@
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>1.02</v>
+        <v>3.37</v>
       </c>
       <c r="U128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="n">
-        <v>1666451221</v>
+        <v>1701098878</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -8707,19 +8713,19 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.1796</v>
+        <v>0.0051</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>45708.68022618056</v>
+        <v>45727.87167579861</v>
       </c>
       <c r="G129" t="n">
-        <v>43</v>
+        <v>139.41</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>45754.64763142361</v>
+        <v>45791.64976413194</v>
       </c>
       <c r="I129" t="n">
-        <v>44.8</v>
+        <v>196.89</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -8728,14 +8734,14 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>7.72</v>
+        <v>0.71</v>
       </c>
       <c r="M129" t="n">
-        <v>8.050000000000001</v>
+        <v>1</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -8750,57 +8756,59 @@
         <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="U129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="n">
-        <v>1749053104</v>
+        <v>1701098878</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>45754.65117414352</v>
+        <v>45727.87167579861</v>
       </c>
       <c r="G130" t="n">
-        <v>4903.7</v>
+        <v>139.41</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>45754.65218731482</v>
+        <v>45792.64655003473</v>
       </c>
       <c r="I130" t="n">
-        <v>4891.1</v>
+        <v>188.02</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="M130" t="n">
+        <v>18.8</v>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
-      <c r="P130" t="n">
-        <v>12.26</v>
-      </c>
+      <c r="P130" t="inlineStr"/>
       <c r="Q130" t="n">
         <v>0</v>
       </c>
@@ -8811,57 +8819,59 @@
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>6.3</v>
+        <v>4.86</v>
       </c>
       <c r="U130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="n">
-        <v>1756767326</v>
+        <v>1426782063</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.01</v>
+        <v>0.0004</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>45756.64805717592</v>
+        <v>45523.66633670139</v>
       </c>
       <c r="G131" t="n">
-        <v>5004.7</v>
+        <v>419.46</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>45756.64937413194</v>
+        <v>45792.64781748843</v>
       </c>
       <c r="I131" t="n">
-        <v>5005.2</v>
+        <v>452.34</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.18</v>
+      </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
-      <c r="P131" t="n">
-        <v>12.51</v>
-      </c>
+      <c r="P131" t="inlineStr"/>
       <c r="Q131" t="n">
         <v>0</v>
       </c>
@@ -8872,57 +8882,59 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>-0.25</v>
+        <v>0.01</v>
       </c>
       <c r="U131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="n">
-        <v>1756797155</v>
+        <v>1481614059</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.01</v>
+        <v>0.0359</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>45756.6510503125</v>
+        <v>45568.77505349537</v>
       </c>
       <c r="G132" t="n">
-        <v>4992.2</v>
+        <v>417.1</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>45756.65185319445</v>
+        <v>45792.64781748843</v>
       </c>
       <c r="I132" t="n">
-        <v>5013.4</v>
+        <v>452.34</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>xStation 5</t>
+          <t>xStation Mobile iOS</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>xStation 5</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
+          <t>xStation Mobile iOS</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="M132" t="n">
+        <v>16.24</v>
+      </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
-      <c r="P132" t="n">
-        <v>12.48</v>
-      </c>
+      <c r="P132" t="inlineStr"/>
       <c r="Q132" t="n">
         <v>0</v>
       </c>
@@ -8933,18 +8945,18 @@
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>-10.6</v>
+        <v>1.27</v>
       </c>
       <c r="U132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="n">
-        <v>1767688540</v>
+        <v>1517514880</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -8953,19 +8965,19 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.01</v>
+        <v>0.0037</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>45761.6294487037</v>
+        <v>45597.6108722338</v>
       </c>
       <c r="G133" t="n">
-        <v>20.1226</v>
+        <v>409.38</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>45761.66966099537</v>
+        <v>45792.64781748843</v>
       </c>
       <c r="I133" t="n">
-        <v>20.047</v>
+        <v>452.34</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -8977,17 +8989,15 @@
           <t>xStation Mobile iOS</t>
         </is>
       </c>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
-        <v>20.048</v>
-      </c>
-      <c r="O133" t="n">
-        <v>20.3404</v>
-      </c>
-      <c r="P133" t="n">
-        <v>5</v>
-      </c>
+      <c r="L133" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
       <c r="Q133" t="n">
         <v>0</v>
       </c>
@@ -8998,22 +9008,18 @@
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>-3.77</v>
-      </c>
-      <c r="U133" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>0.16</v>
+      </c>
+      <c r="U133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="n">
-        <v>1768229183</v>
+        <v>1393281432</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -9022,41 +9028,39 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.01</v>
+        <v>0.632</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>45761.71402207176</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G134" t="n">
-        <v>20.0759</v>
+        <v>5.981</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>45761.77371288194</v>
+        <v>45496.61775418981</v>
       </c>
       <c r="I134" t="n">
-        <v>20.1099</v>
+        <v>5.967</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
-        <v>20.1099</v>
-      </c>
-      <c r="O134" t="n">
-        <v>20.2122</v>
-      </c>
-      <c r="P134" t="n">
-        <v>5</v>
-      </c>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="M134" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
       <c r="Q134" t="n">
         <v>0</v>
       </c>
@@ -9067,22 +9071,18 @@
         <v>0</v>
       </c>
       <c r="T134" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U134" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>-0.01</v>
+      </c>
+      <c r="U134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="n">
-        <v>1769815245</v>
+        <v>1393281260</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -9091,39 +9091,39 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.01</v>
+        <v>0.5612</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>45762.50265097222</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G135" t="n">
-        <v>20.0545</v>
+        <v>5.812</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>45762.61225923611</v>
+        <v>45496.61775451389</v>
       </c>
       <c r="I135" t="n">
-        <v>19.9735</v>
+        <v>5.81</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
-        <v>19.9742</v>
-      </c>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M135" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
-      <c r="P135" t="n">
-        <v>5</v>
-      </c>
+      <c r="P135" t="inlineStr"/>
       <c r="Q135" t="n">
         <v>0</v>
       </c>
@@ -9134,22 +9134,18 @@
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>-4.06</v>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>[S/L]</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="n">
-        <v>1666451221</v>
+        <v>1393281260</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -9158,35 +9154,35 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.0528</v>
+        <v>0.555</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>45708.68022618056</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G136" t="n">
-        <v>43</v>
+        <v>5.812</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>45764.85028728009</v>
+        <v>45497.65423505787</v>
       </c>
       <c r="I136" t="n">
-        <v>47.89</v>
+        <v>5.801</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.27</v>
+        <v>3.23</v>
       </c>
       <c r="M136" t="n">
-        <v>2.53</v>
+        <v>3.22</v>
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
@@ -9201,18 +9197,18 @@
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>0.25</v>
+        <v>-0.01</v>
       </c>
       <c r="U136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="n">
-        <v>1450043624</v>
+        <v>1393281432</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>KMB</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -9221,35 +9217,35 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.1</v>
+        <v>0.4344</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>45544.65163506944</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G137" t="n">
-        <v>147.48</v>
+        <v>5.981</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>45764.8517803588</v>
+        <v>45497.65423550926</v>
       </c>
       <c r="I137" t="n">
-        <v>143.22</v>
+        <v>5.968</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>14.75</v>
+        <v>2.6</v>
       </c>
       <c r="M137" t="n">
-        <v>14.32</v>
+        <v>2.59</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -9264,18 +9260,18 @@
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>-0.42</v>
+        <v>-0.01</v>
       </c>
       <c r="U137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="n">
-        <v>1777308201</v>
+        <v>1393281260</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -9284,37 +9280,39 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>45768.12181488426</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G138" t="n">
-        <v>19.7053</v>
+        <v>5.812</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>45768.13306659722</v>
+        <v>45497.65424290509</v>
       </c>
       <c r="I138" t="n">
-        <v>19.7154</v>
+        <v>5.814</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="M138" t="n">
+        <v>5.81</v>
+      </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
-      <c r="P138" t="n">
-        <v>5</v>
-      </c>
+      <c r="P138" t="inlineStr"/>
       <c r="Q138" t="n">
         <v>0</v>
       </c>
@@ -9325,18 +9323,18 @@
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="U138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="n">
-        <v>1781449563</v>
+        <v>1393281432</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MXN=X</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -9345,37 +9343,39 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>45769.73814164352</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G139" t="n">
-        <v>19.58</v>
+        <v>5.981</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>45769.76084202546</v>
+        <v>45497.65424459491</v>
       </c>
       <c r="I139" t="n">
-        <v>19.5255</v>
+        <v>5.978</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
+          <t>xStation 5</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="M139" t="n">
+        <v>5.98</v>
+      </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
-      <c r="P139" t="n">
-        <v>5</v>
-      </c>
+      <c r="P139" t="inlineStr"/>
       <c r="Q139" t="n">
         <v>0</v>
       </c>
@@ -9386,18 +9386,18 @@
         <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>-2.79</v>
+        <v>0</v>
       </c>
       <c r="U139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="n">
-        <v>1560258921</v>
+        <v>1393281260</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>VBTC.DE</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -9406,35 +9406,35 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>0.4206</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>45629.37798611111</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G140" t="n">
-        <v>48.68</v>
+        <v>5.812</v>
       </c>
       <c r="H140" s="2" t="n">
-        <v>45782.67688657407</v>
+        <v>45504.63556305556</v>
       </c>
       <c r="I140" t="n">
-        <v>44.15</v>
+        <v>5.826</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>51.41</v>
+        <v>2.44</v>
       </c>
       <c r="M140" t="n">
-        <v>49.84</v>
+        <v>2.45</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
@@ -9449,18 +9449,18 @@
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>-1.57</v>
+        <v>0.01</v>
       </c>
       <c r="U140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="n">
-        <v>1748583646</v>
+        <v>1393281432</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>VBTC.DE</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -9469,35 +9469,35 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0.4033</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>45754.57938657407</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G141" t="n">
-        <v>37.258</v>
+        <v>5.981</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>45782.67688657407</v>
+        <v>45504.6355634375</v>
       </c>
       <c r="I141" t="n">
-        <v>44.15</v>
+        <v>5.98</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>41.06</v>
+        <v>2.41</v>
       </c>
       <c r="M141" t="n">
-        <v>49.84</v>
+        <v>2.41</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -9512,18 +9512,18 @@
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>8.779999999999999</v>
+        <v>0</v>
       </c>
       <c r="U141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="n">
-        <v>1373808226</v>
+        <v>1393281432</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -9532,35 +9532,35 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.0234</v>
+        <v>0.4201</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>45476.6587916088</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G142" t="n">
-        <v>459.24</v>
+        <v>5.981</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>45784.77664918981</v>
+        <v>45504.64158128472</v>
       </c>
       <c r="I142" t="n">
-        <v>434.71</v>
+        <v>5.98</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>10.75</v>
+        <v>2.51</v>
       </c>
       <c r="M142" t="n">
-        <v>10.17</v>
+        <v>2.51</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -9575,18 +9575,18 @@
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>-0.58</v>
+        <v>0</v>
       </c>
       <c r="U142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="n">
-        <v>1426782063</v>
+        <v>1393281432</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -9595,35 +9595,35 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.0372</v>
+        <v>1</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>45523.66633670139</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G143" t="n">
-        <v>419.46</v>
+        <v>5.981</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>45784.77664918981</v>
+        <v>45726.37522701389</v>
       </c>
       <c r="I143" t="n">
-        <v>434.71</v>
+        <v>6.186</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>15.6</v>
+        <v>5.98</v>
       </c>
       <c r="M143" t="n">
-        <v>16.17</v>
+        <v>6.19</v>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
@@ -9638,18 +9638,18 @@
         <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="U143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="n">
-        <v>1426782063</v>
+        <v>1393281260</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -9658,35 +9658,35 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.01</v>
+        <v>1.4632</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>45523.66633670139</v>
+        <v>45496.37564016203</v>
       </c>
       <c r="G144" t="n">
-        <v>419.46</v>
+        <v>5.812</v>
       </c>
       <c r="H144" s="2" t="n">
-        <v>45785.65885817129</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I144" t="n">
-        <v>437.05</v>
+        <v>6.02</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>4.19</v>
+        <v>8.5</v>
       </c>
       <c r="M144" t="n">
-        <v>4.37</v>
+        <v>8.81</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -9701,18 +9701,18 @@
         <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="U144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="n">
-        <v>1744929368</v>
+        <v>1393287040</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -9721,19 +9721,19 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.0424</v>
+        <v>0.2503</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>45751.7450085301</v>
+        <v>45496.37755140047</v>
       </c>
       <c r="G145" t="n">
-        <v>324.48</v>
+        <v>5.811</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>45785.65909077547</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I145" t="n">
-        <v>353.02</v>
+        <v>6.02</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
@@ -9742,14 +9742,14 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L145" t="n">
-        <v>13.76</v>
+        <v>1.45</v>
       </c>
       <c r="M145" t="n">
-        <v>14.97</v>
+        <v>1.51</v>
       </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
@@ -9764,18 +9764,18 @@
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>1.21</v>
+        <v>0.06</v>
       </c>
       <c r="U145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="n">
-        <v>1414372592</v>
+        <v>1403180431</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -9784,35 +9784,35 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.0229</v>
+        <v>0.2773</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>45511.7228721412</v>
+        <v>45504.64299350695</v>
       </c>
       <c r="G146" t="n">
-        <v>455.4</v>
+        <v>5.84</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>45785.66047934028</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I146" t="n">
-        <v>568.9299999999999</v>
+        <v>6.02</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L146" t="n">
-        <v>10.43</v>
+        <v>1.62</v>
       </c>
       <c r="M146" t="n">
-        <v>13.03</v>
+        <v>1.67</v>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
@@ -9827,18 +9827,18 @@
         <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>2.6</v>
+        <v>0.05</v>
       </c>
       <c r="U146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="n">
-        <v>1582737192</v>
+        <v>1403180445</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -9847,35 +9847,35 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.0371</v>
+        <v>0.0092</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>45645.90143914352</v>
+        <v>45504.64300175926</v>
       </c>
       <c r="G147" t="n">
-        <v>524.4299999999999</v>
+        <v>5.836</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>45785.66047934028</v>
+        <v>45726.37526289352</v>
       </c>
       <c r="I147" t="n">
-        <v>568.9299999999999</v>
+        <v>6.02</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>xStation Mobile Android</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>19.46</v>
+        <v>0.05</v>
       </c>
       <c r="M147" t="n">
-        <v>21.11</v>
+        <v>0.06</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -9890,18 +9890,18 @@
         <v>0</v>
       </c>
       <c r="T147" t="n">
-        <v>1.65</v>
+        <v>0.01</v>
       </c>
       <c r="U147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="n">
-        <v>1599454287</v>
+        <v>1393735509</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -9910,35 +9910,35 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.0366</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>45663.73715268519</v>
+        <v>45496.61777673611</v>
       </c>
       <c r="G148" t="n">
-        <v>196.49</v>
+        <v>67.37</v>
       </c>
       <c r="H148" s="2" t="n">
-        <v>45791.64976413194</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I148" t="n">
-        <v>196.89</v>
+        <v>71.16</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>14.99</v>
+        <v>2.47</v>
       </c>
       <c r="M148" t="n">
-        <v>15.02</v>
+        <v>2.6</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -9953,18 +9953,18 @@
         <v>0</v>
       </c>
       <c r="T148" t="n">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="U148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="n">
-        <v>1621495599</v>
+        <v>1395218355</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -9973,35 +9973,35 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.08169999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>45678.83206015046</v>
+        <v>45497.65423574074</v>
       </c>
       <c r="G149" t="n">
-        <v>183.39</v>
+        <v>67.13</v>
       </c>
       <c r="H149" s="2" t="n">
-        <v>45791.64976413194</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I149" t="n">
-        <v>196.89</v>
+        <v>71.16</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>14.98</v>
+        <v>4.97</v>
       </c>
       <c r="M149" t="n">
-        <v>16.09</v>
+        <v>5.27</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -10016,18 +10016,18 @@
         <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>1.11</v>
+        <v>0.3</v>
       </c>
       <c r="U149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="n">
-        <v>1631467534</v>
+        <v>1403166009</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -10036,35 +10036,35 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.09370000000000001</v>
+        <v>0.0362</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>45685.83235356482</v>
+        <v>45504.63556387732</v>
       </c>
       <c r="G150" t="n">
-        <v>159.74</v>
+        <v>68.05</v>
       </c>
       <c r="H150" s="2" t="n">
-        <v>45791.64976413194</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I150" t="n">
-        <v>196.89</v>
+        <v>71.16</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>14.97</v>
+        <v>2.46</v>
       </c>
       <c r="M150" t="n">
-        <v>18.45</v>
+        <v>2.58</v>
       </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
@@ -10079,18 +10079,18 @@
         <v>0</v>
       </c>
       <c r="T150" t="n">
-        <v>3.48</v>
+        <v>0.12</v>
       </c>
       <c r="U150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="n">
-        <v>1666449688</v>
+        <v>1403177543</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -10099,35 +10099,35 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.09320000000000001</v>
+        <v>0.0368</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>45708.67996841436</v>
+        <v>45504.64158137731</v>
       </c>
       <c r="G151" t="n">
-        <v>160.68</v>
+        <v>68.045</v>
       </c>
       <c r="H151" s="2" t="n">
-        <v>45791.64976413194</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I151" t="n">
-        <v>196.89</v>
+        <v>71.16</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>14.98</v>
+        <v>2.5</v>
       </c>
       <c r="M151" t="n">
-        <v>18.35</v>
+        <v>2.62</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -10142,18 +10142,18 @@
         <v>0</v>
       </c>
       <c r="T151" t="n">
-        <v>3.37</v>
+        <v>0.12</v>
       </c>
       <c r="U151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="n">
-        <v>1701098878</v>
+        <v>1403180429</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>VHYD.L</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -10162,35 +10162,35 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.0051</v>
+        <v>0.0733</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>45727.87167579861</v>
+        <v>45504.6429933912</v>
       </c>
       <c r="G152" t="n">
-        <v>139.41</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="H152" s="2" t="n">
-        <v>45791.64976413194</v>
+        <v>45726.37603653935</v>
       </c>
       <c r="I152" t="n">
-        <v>196.89</v>
+        <v>71.16</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>0.71</v>
+        <v>4.99</v>
       </c>
       <c r="M152" t="n">
-        <v>1</v>
+        <v>5.22</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -10205,18 +10205,18 @@
         <v>0</v>
       </c>
       <c r="T152" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="U152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="n">
-        <v>1701098878</v>
+        <v>1403180445</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>SDIA.L</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -10225,35 +10225,35 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.1</v>
+        <v>0.9908</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>45727.87167579861</v>
+        <v>45504.64300175926</v>
       </c>
       <c r="G153" t="n">
-        <v>139.41</v>
+        <v>5.836</v>
       </c>
       <c r="H153" s="2" t="n">
-        <v>45792.64655003473</v>
+        <v>45726.43231427083</v>
       </c>
       <c r="I153" t="n">
-        <v>188.02</v>
+        <v>6.027</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>13.94</v>
+        <v>5.78</v>
       </c>
       <c r="M153" t="n">
-        <v>18.8</v>
+        <v>5.97</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -10268,18 +10268,18 @@
         <v>0</v>
       </c>
       <c r="T153" t="n">
-        <v>4.86</v>
+        <v>0.18</v>
       </c>
       <c r="U153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="n">
-        <v>1426782063</v>
+        <v>1393281432</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -10288,35 +10288,35 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.0004</v>
+        <v>0.1102</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>45523.66633670139</v>
+        <v>45496.37566553241</v>
       </c>
       <c r="G154" t="n">
-        <v>419.46</v>
+        <v>5.981</v>
       </c>
       <c r="H154" s="2" t="n">
-        <v>45792.64781748843</v>
+        <v>45727.38638285879</v>
       </c>
       <c r="I154" t="n">
-        <v>452.34</v>
+        <v>6.176</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>0.17</v>
+        <v>0.66</v>
       </c>
       <c r="M154" t="n">
-        <v>0.18</v>
+        <v>0.68</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -10331,18 +10331,18 @@
         <v>0</v>
       </c>
       <c r="T154" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="U154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="n">
-        <v>1481614059</v>
+        <v>1393301698</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -10351,35 +10351,35 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.0359</v>
+        <v>0.1401</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>45568.77505349537</v>
+        <v>45496.37886077546</v>
       </c>
       <c r="G155" t="n">
-        <v>417.1</v>
+        <v>5.99</v>
       </c>
       <c r="H155" s="2" t="n">
-        <v>45792.64781748843</v>
+        <v>45727.38638285879</v>
       </c>
       <c r="I155" t="n">
-        <v>452.34</v>
+        <v>6.176</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L155" t="n">
-        <v>14.97</v>
+        <v>0.84</v>
       </c>
       <c r="M155" t="n">
-        <v>16.24</v>
+        <v>0.87</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -10394,18 +10394,18 @@
         <v>0</v>
       </c>
       <c r="T155" t="n">
-        <v>1.27</v>
+        <v>0.03</v>
       </c>
       <c r="U155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="n">
-        <v>1517514880</v>
+        <v>1403180427</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>FLOA.L</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -10414,35 +10414,35 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.0037</v>
+        <v>0.4203</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>45597.6108722338</v>
+        <v>45504.64299328704</v>
       </c>
       <c r="G156" t="n">
-        <v>409.38</v>
+        <v>5.989</v>
       </c>
       <c r="H156" s="2" t="n">
-        <v>45792.64781748843</v>
+        <v>45727.38638285879</v>
       </c>
       <c r="I156" t="n">
-        <v>452.34</v>
+        <v>6.176</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>xStation Mobile iOS</t>
+          <t>xStation 5</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.51</v>
+        <v>2.52</v>
       </c>
       <c r="M156" t="n">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="T156" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="U156" t="inlineStr"/>
     </row>
